--- a/Ground_Beetle_Trait_Data.xlsx
+++ b/Ground_Beetle_Trait_Data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="210" documentId="8_{E2050BF1-76E4-4F70-9FBA-540374142038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA48BADC-0EBB-44F2-AA74-94A0C95900A5}"/>
   <bookViews>
-    <workbookView xWindow="-13485" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{26CD3380-8D22-4921-8806-3E729FE2C138}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{26CD3380-8D22-4921-8806-3E729FE2C138}"/>
   </bookViews>
   <sheets>
     <sheet name="MetaData" sheetId="1" r:id="rId1"/>
@@ -23874,8 +23874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A206CABB-ABE4-46DD-AA57-1E467524ABE0}">
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Ground_Beetle_Trait_Data.xlsx
+++ b/Ground_Beetle_Trait_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buckeyemailosu-my.sharepoint.com/personal/perry_1864_osu_edu/Documents/Documents/Postdoc Projects/Postdoc - Gardiner Lab/Cleveland Ecology Project/Data analysis/CLE_Beetles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="8_{E2050BF1-76E4-4F70-9FBA-540374142038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA48BADC-0EBB-44F2-AA74-94A0C95900A5}"/>
+  <xr:revisionPtr revIDLastSave="1008" documentId="8_{E2050BF1-76E4-4F70-9FBA-540374142038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF77F967-8313-4212-A241-08E8D15B53CE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{26CD3380-8D22-4921-8806-3E729FE2C138}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{26CD3380-8D22-4921-8806-3E729FE2C138}"/>
   </bookViews>
   <sheets>
     <sheet name="MetaData" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="251">
   <si>
     <t>Species</t>
   </si>
@@ -659,18 +659,6 @@
     <t>agfi</t>
   </si>
   <si>
-    <t>Agonum retractum</t>
-  </si>
-  <si>
-    <t>agre</t>
-  </si>
-  <si>
-    <t>Agonum tenue</t>
-  </si>
-  <si>
-    <t>agte</t>
-  </si>
-  <si>
     <t>Agonum octopunctatum</t>
   </si>
   <si>
@@ -695,12 +683,6 @@
     <t>ptco</t>
   </si>
   <si>
-    <t>Harpalus rubripes</t>
-  </si>
-  <si>
-    <t>haru</t>
-  </si>
-  <si>
     <t>Carabus goryi</t>
   </si>
   <si>
@@ -711,12 +693,6 @@
   </si>
   <si>
     <t>cane</t>
-  </si>
-  <si>
-    <t>Platynus opaculus</t>
-  </si>
-  <si>
-    <t>plop</t>
   </si>
   <si>
     <t>Oxypselaphus pusillus</t>
@@ -749,12 +725,6 @@
     <t>amse</t>
   </si>
   <si>
-    <t>Semiardistomis viridis</t>
-  </si>
-  <si>
-    <t>sevi</t>
-  </si>
-  <si>
     <t>Amara crassispina</t>
   </si>
   <si>
@@ -765,12 +735,6 @@
   </si>
   <si>
     <t>amch</t>
-  </si>
-  <si>
-    <t>Amara lunicollis</t>
-  </si>
-  <si>
-    <t>amlu</t>
   </si>
   <si>
     <t>Nebria pallipes</t>
@@ -796,6 +760,39 @@
   <si>
     <t>noni</t>
   </si>
+  <si>
+    <t>haaf</t>
+  </si>
+  <si>
+    <t>Harpalus affinis</t>
+  </si>
+  <si>
+    <t>Dyschirius pilosus</t>
+  </si>
+  <si>
+    <t>dypi</t>
+  </si>
+  <si>
+    <t>Agonum palustre</t>
+  </si>
+  <si>
+    <t>agpa</t>
+  </si>
+  <si>
+    <t>Synuchus impunctatus</t>
+  </si>
+  <si>
+    <t>syim</t>
+  </si>
+  <si>
+    <t>Amara coelebs</t>
+  </si>
+  <si>
+    <t>amco</t>
+  </si>
+  <si>
+    <t>Agonum nutams</t>
+  </si>
 </sst>
 </file>
 
@@ -804,7 +801,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,6 +816,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -853,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -876,20 +878,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1238,10 +1231,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0028CCB2-61FA-4227-968A-7EBA22769B0C}">
-  <dimension ref="A1:AB208"/>
+  <dimension ref="A1:AB259"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J201" sqref="J201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D184" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AB249" sqref="AB249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11844,95 +11840,95 @@
         <v>66</v>
       </c>
     </row>
-    <row r="123" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="10" t="s">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>92</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" t="s">
         <v>93</v>
       </c>
-      <c r="C123" s="12">
+      <c r="C123" s="5">
         <v>1</v>
       </c>
-      <c r="D123" s="13">
+      <c r="D123" s="7">
         <v>38</v>
       </c>
-      <c r="E123" s="13">
+      <c r="E123" s="7">
         <v>39</v>
       </c>
-      <c r="F123" s="13">
+      <c r="F123" s="7">
         <v>38</v>
       </c>
-      <c r="G123" s="13">
+      <c r="G123" s="7">
         <f t="shared" si="6"/>
         <v>38.333333333333336</v>
       </c>
-      <c r="H123" s="13">
+      <c r="H123" s="7">
         <v>8</v>
       </c>
-      <c r="I123" s="13">
+      <c r="I123" s="7">
         <v>8.5</v>
       </c>
-      <c r="J123" s="13">
+      <c r="J123" s="7">
         <v>8</v>
       </c>
-      <c r="K123" s="13">
+      <c r="K123" s="7">
         <f t="shared" si="7"/>
         <v>8.1666666666666661</v>
       </c>
-      <c r="L123" s="13">
+      <c r="L123" s="7">
         <v>2</v>
       </c>
-      <c r="M123" s="13">
+      <c r="M123" s="7">
         <v>2</v>
       </c>
-      <c r="N123" s="13">
+      <c r="N123" s="7">
         <v>2</v>
       </c>
-      <c r="O123" s="13">
+      <c r="O123" s="7">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="P123" s="13">
+      <c r="P123" s="7">
         <v>15</v>
       </c>
-      <c r="Q123" s="13">
+      <c r="Q123" s="7">
         <v>18</v>
       </c>
-      <c r="R123" s="13">
+      <c r="R123" s="7">
         <v>16</v>
       </c>
-      <c r="S123" s="13">
+      <c r="S123" s="7">
         <f t="shared" si="9"/>
         <v>16.333333333333332</v>
       </c>
-      <c r="T123" s="14">
+      <c r="T123" s="3">
         <v>8</v>
       </c>
-      <c r="U123" s="14">
+      <c r="U123" s="3">
         <v>8.5</v>
       </c>
-      <c r="V123" s="14">
+      <c r="V123" s="3">
         <v>8</v>
       </c>
-      <c r="W123" s="14">
+      <c r="W123" s="3">
         <f t="shared" si="10"/>
         <v>8.1666666666666661</v>
       </c>
-      <c r="X123" s="14">
+      <c r="X123" s="3">
         <v>9</v>
       </c>
-      <c r="Y123" s="14">
+      <c r="Y123" s="3">
         <v>9.5</v>
       </c>
-      <c r="Z123" s="14">
+      <c r="Z123" s="3">
         <v>9</v>
       </c>
-      <c r="AA123" s="14">
+      <c r="AA123" s="3">
         <f t="shared" si="11"/>
         <v>9.1666666666666661</v>
       </c>
-      <c r="AB123" s="10" t="s">
+      <c r="AB123" t="s">
         <v>66</v>
       </c>
     </row>
@@ -17971,7 +17967,7 @@
         <v>50</v>
       </c>
       <c r="G194" s="7">
-        <f t="shared" ref="G194:G208" si="18">AVERAGE(D194:F194)</f>
+        <f t="shared" ref="G194:G211" si="18">AVERAGE(D194:F194)</f>
         <v>49.833333333333336</v>
       </c>
       <c r="H194" s="7">
@@ -17984,7 +17980,7 @@
         <v>12</v>
       </c>
       <c r="K194" s="7">
-        <f t="shared" ref="K194:K208" si="19">AVERAGE(H194:J194)</f>
+        <f t="shared" ref="K194:K211" si="19">AVERAGE(H194:J194)</f>
         <v>12</v>
       </c>
       <c r="L194" s="7">
@@ -17997,7 +17993,7 @@
         <v>4.5</v>
       </c>
       <c r="O194" s="7">
-        <f t="shared" ref="O194:O208" si="20">AVERAGE(L194:N194)</f>
+        <f t="shared" ref="O194:O211" si="20">AVERAGE(L194:N194)</f>
         <v>4.333333333333333</v>
       </c>
       <c r="P194" s="7">
@@ -18023,7 +18019,7 @@
         <v>12</v>
       </c>
       <c r="W194" s="3">
-        <f t="shared" ref="W194:W208" si="22">AVERAGE(T194:V194)</f>
+        <f t="shared" ref="W194:W211" si="22">AVERAGE(T194:V194)</f>
         <v>12</v>
       </c>
       <c r="X194" s="3">
@@ -18036,7 +18032,7 @@
         <v>13</v>
       </c>
       <c r="AA194" s="3">
-        <f t="shared" ref="AA194:AA208" si="23">AVERAGE(X194:Z194)</f>
+        <f t="shared" ref="AA194:AA211" si="23">AVERAGE(X194:Z194)</f>
         <v>12.833333333333334</v>
       </c>
       <c r="AB194" t="s">
@@ -19205,6 +19201,2385 @@
       </c>
       <c r="AB208" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="209" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>241</v>
+      </c>
+      <c r="B209" t="s">
+        <v>240</v>
+      </c>
+      <c r="C209" s="5">
+        <v>1</v>
+      </c>
+      <c r="D209" s="7">
+        <v>105</v>
+      </c>
+      <c r="E209" s="7">
+        <v>106</v>
+      </c>
+      <c r="F209" s="7">
+        <v>105</v>
+      </c>
+      <c r="G209" s="7">
+        <f t="shared" si="18"/>
+        <v>105.33333333333333</v>
+      </c>
+      <c r="H209" s="7">
+        <v>25</v>
+      </c>
+      <c r="I209" s="7">
+        <v>25</v>
+      </c>
+      <c r="J209" s="7">
+        <v>25</v>
+      </c>
+      <c r="K209" s="7">
+        <f t="shared" si="19"/>
+        <v>25</v>
+      </c>
+      <c r="L209" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="M209" s="7">
+        <v>5</v>
+      </c>
+      <c r="N209" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="O209" s="7">
+        <f t="shared" si="20"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="P209" s="7">
+        <v>34</v>
+      </c>
+      <c r="Q209" s="7">
+        <v>35</v>
+      </c>
+      <c r="R209" s="7">
+        <v>33</v>
+      </c>
+      <c r="T209" s="3">
+        <v>26</v>
+      </c>
+      <c r="U209" s="3">
+        <v>26</v>
+      </c>
+      <c r="V209" s="3">
+        <v>27</v>
+      </c>
+      <c r="W209" s="3">
+        <f t="shared" si="22"/>
+        <v>26.333333333333332</v>
+      </c>
+      <c r="X209" s="3">
+        <v>24</v>
+      </c>
+      <c r="Y209" s="3">
+        <v>25</v>
+      </c>
+      <c r="Z209" s="3">
+        <v>25</v>
+      </c>
+      <c r="AA209" s="3">
+        <f t="shared" si="23"/>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="AB209" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="210" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C210" s="5">
+        <v>2</v>
+      </c>
+      <c r="D210" s="7">
+        <v>101</v>
+      </c>
+      <c r="E210" s="7">
+        <v>100</v>
+      </c>
+      <c r="F210" s="7">
+        <v>102</v>
+      </c>
+      <c r="G210" s="7">
+        <f t="shared" si="18"/>
+        <v>101</v>
+      </c>
+      <c r="H210" s="7">
+        <v>24</v>
+      </c>
+      <c r="I210" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="J210" s="7">
+        <v>24</v>
+      </c>
+      <c r="K210" s="7">
+        <f t="shared" si="19"/>
+        <v>23.833333333333332</v>
+      </c>
+      <c r="L210" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="M210" s="7">
+        <v>6</v>
+      </c>
+      <c r="N210" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="O210" s="7">
+        <f t="shared" si="20"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="P210" s="7">
+        <v>34</v>
+      </c>
+      <c r="Q210" s="7">
+        <v>35</v>
+      </c>
+      <c r="R210" s="7">
+        <v>34</v>
+      </c>
+      <c r="T210" s="3">
+        <v>22</v>
+      </c>
+      <c r="U210" s="3">
+        <v>22</v>
+      </c>
+      <c r="V210" s="3">
+        <v>23</v>
+      </c>
+      <c r="W210" s="3">
+        <f t="shared" si="22"/>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="X210" s="3">
+        <v>20</v>
+      </c>
+      <c r="Y210" s="3">
+        <v>21</v>
+      </c>
+      <c r="Z210" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA210" s="3">
+        <f t="shared" si="23"/>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="AB210" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="211" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C211" s="5">
+        <v>3</v>
+      </c>
+      <c r="D211" s="7">
+        <v>105</v>
+      </c>
+      <c r="E211" s="7">
+        <v>106</v>
+      </c>
+      <c r="F211" s="7">
+        <v>105</v>
+      </c>
+      <c r="G211" s="7">
+        <f t="shared" si="18"/>
+        <v>105.33333333333333</v>
+      </c>
+      <c r="H211" s="7">
+        <v>24</v>
+      </c>
+      <c r="I211" s="7">
+        <v>24</v>
+      </c>
+      <c r="J211" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="K211" s="7">
+        <f t="shared" si="19"/>
+        <v>24.166666666666668</v>
+      </c>
+      <c r="L211" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="M211" s="7">
+        <v>5</v>
+      </c>
+      <c r="N211" s="7">
+        <v>5</v>
+      </c>
+      <c r="O211" s="7">
+        <f t="shared" si="20"/>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="P211" s="7">
+        <v>33</v>
+      </c>
+      <c r="Q211" s="7">
+        <v>34</v>
+      </c>
+      <c r="R211" s="7">
+        <v>34</v>
+      </c>
+      <c r="T211" s="3">
+        <v>25</v>
+      </c>
+      <c r="U211" s="3">
+        <v>25</v>
+      </c>
+      <c r="V211" s="3">
+        <v>26</v>
+      </c>
+      <c r="W211" s="3">
+        <f t="shared" si="22"/>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="X211" s="3">
+        <v>23</v>
+      </c>
+      <c r="Y211" s="3">
+        <v>24</v>
+      </c>
+      <c r="Z211" s="3">
+        <v>24</v>
+      </c>
+      <c r="AA211" s="3">
+        <f t="shared" si="23"/>
+        <v>23.666666666666668</v>
+      </c>
+      <c r="AB211" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="212" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C212" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C213" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C214" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>242</v>
+      </c>
+      <c r="B215" t="s">
+        <v>243</v>
+      </c>
+      <c r="C215" s="5">
+        <v>1</v>
+      </c>
+      <c r="D215" s="7">
+        <v>45</v>
+      </c>
+      <c r="E215" s="7">
+        <v>46</v>
+      </c>
+      <c r="F215" s="7">
+        <v>46</v>
+      </c>
+      <c r="H215" s="7">
+        <v>8</v>
+      </c>
+      <c r="I215" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="J215" s="7">
+        <v>8</v>
+      </c>
+      <c r="L215" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="M215" s="7">
+        <v>4</v>
+      </c>
+      <c r="N215" s="7">
+        <v>4</v>
+      </c>
+      <c r="P215" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q215" s="7">
+        <v>16</v>
+      </c>
+      <c r="R215" s="7">
+        <v>15</v>
+      </c>
+      <c r="T215" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="U215" s="3">
+        <v>8</v>
+      </c>
+      <c r="V215" s="3">
+        <v>8</v>
+      </c>
+      <c r="X215" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y215" s="3">
+        <v>8</v>
+      </c>
+      <c r="Z215" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="AB215" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="216" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C216" s="5">
+        <v>2</v>
+      </c>
+      <c r="D216" s="7">
+        <v>49</v>
+      </c>
+      <c r="E216" s="7">
+        <v>49</v>
+      </c>
+      <c r="F216" s="7">
+        <v>50</v>
+      </c>
+      <c r="H216" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="I216" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="J216" s="7">
+        <v>9</v>
+      </c>
+      <c r="L216" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="M216" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="N216" s="7">
+        <v>4</v>
+      </c>
+      <c r="P216" s="7">
+        <v>17</v>
+      </c>
+      <c r="Q216" s="7">
+        <v>18</v>
+      </c>
+      <c r="R216" s="7">
+        <v>17</v>
+      </c>
+      <c r="T216" s="3">
+        <v>8</v>
+      </c>
+      <c r="U216" s="3">
+        <v>8</v>
+      </c>
+      <c r="V216" s="3">
+        <v>9</v>
+      </c>
+      <c r="X216" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="Y216" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z216" s="3">
+        <v>9</v>
+      </c>
+      <c r="AB216" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="217" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C217" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C218" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>246</v>
+      </c>
+      <c r="B219" t="s">
+        <v>247</v>
+      </c>
+      <c r="C219" s="5">
+        <v>1</v>
+      </c>
+      <c r="D219" s="7">
+        <v>100</v>
+      </c>
+      <c r="E219" s="7">
+        <v>101</v>
+      </c>
+      <c r="F219" s="7">
+        <v>102</v>
+      </c>
+      <c r="H219" s="7">
+        <v>17</v>
+      </c>
+      <c r="I219" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="J219" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="L219" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="M219" s="7">
+        <v>6</v>
+      </c>
+      <c r="N219" s="7">
+        <v>6</v>
+      </c>
+      <c r="P219" s="7">
+        <v>58</v>
+      </c>
+      <c r="Q219" s="7">
+        <v>58</v>
+      </c>
+      <c r="R219" s="7">
+        <v>57</v>
+      </c>
+      <c r="T219" s="3">
+        <v>28</v>
+      </c>
+      <c r="U219" s="3">
+        <v>29</v>
+      </c>
+      <c r="V219" s="3">
+        <v>28</v>
+      </c>
+      <c r="X219" s="3">
+        <v>28</v>
+      </c>
+      <c r="Y219" s="3">
+        <v>29</v>
+      </c>
+      <c r="Z219" s="3">
+        <v>29</v>
+      </c>
+      <c r="AB219" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="220" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>188</v>
+      </c>
+      <c r="B220" t="s">
+        <v>189</v>
+      </c>
+      <c r="C220" s="5">
+        <v>1</v>
+      </c>
+      <c r="D220" s="7">
+        <v>43</v>
+      </c>
+      <c r="E220" s="7">
+        <v>43</v>
+      </c>
+      <c r="F220" s="7">
+        <v>42</v>
+      </c>
+      <c r="H220" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="I220" s="7">
+        <v>9</v>
+      </c>
+      <c r="J220" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="L220" s="7">
+        <v>3</v>
+      </c>
+      <c r="M220" s="7">
+        <v>3</v>
+      </c>
+      <c r="N220" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="P220" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q220" s="7">
+        <v>21</v>
+      </c>
+      <c r="R220" s="7">
+        <v>20</v>
+      </c>
+      <c r="T220" s="3">
+        <v>10</v>
+      </c>
+      <c r="U220" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="V220" s="3">
+        <v>11</v>
+      </c>
+      <c r="X220" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y220" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z220" s="3">
+        <v>9</v>
+      </c>
+      <c r="AB220" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="221" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C221" s="5">
+        <v>2</v>
+      </c>
+      <c r="D221" s="7">
+        <v>38</v>
+      </c>
+      <c r="E221" s="7">
+        <v>38.5</v>
+      </c>
+      <c r="F221" s="7">
+        <v>38</v>
+      </c>
+      <c r="H221" s="7">
+        <v>8</v>
+      </c>
+      <c r="I221" s="7">
+        <v>8</v>
+      </c>
+      <c r="J221" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="L221" s="7">
+        <v>3</v>
+      </c>
+      <c r="M221" s="7">
+        <v>3</v>
+      </c>
+      <c r="N221" s="7">
+        <v>3</v>
+      </c>
+      <c r="P221" s="7">
+        <v>16</v>
+      </c>
+      <c r="Q221" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="R221" s="7">
+        <v>16</v>
+      </c>
+      <c r="T221" s="3">
+        <v>8</v>
+      </c>
+      <c r="U221" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="V221" s="3">
+        <v>8</v>
+      </c>
+      <c r="X221" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="Y221" s="3">
+        <v>8</v>
+      </c>
+      <c r="Z221" s="3">
+        <v>8</v>
+      </c>
+      <c r="AB221" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="222" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>236</v>
+      </c>
+      <c r="B222" t="s">
+        <v>237</v>
+      </c>
+      <c r="C222" s="5">
+        <v>1</v>
+      </c>
+      <c r="D222" s="7">
+        <v>70</v>
+      </c>
+      <c r="E222" s="7">
+        <v>70</v>
+      </c>
+      <c r="F222" s="7">
+        <v>72</v>
+      </c>
+      <c r="H222" s="7">
+        <v>12</v>
+      </c>
+      <c r="I222" s="7">
+        <v>12</v>
+      </c>
+      <c r="J222" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="L222" s="7">
+        <v>5</v>
+      </c>
+      <c r="M222" s="7">
+        <v>5</v>
+      </c>
+      <c r="N222" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="P222" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q222" s="7">
+        <v>31</v>
+      </c>
+      <c r="R222" s="7">
+        <v>31</v>
+      </c>
+      <c r="T222" s="3">
+        <v>15</v>
+      </c>
+      <c r="U222" s="3">
+        <v>15</v>
+      </c>
+      <c r="V222" s="3">
+        <v>16</v>
+      </c>
+      <c r="X222" s="3">
+        <v>14</v>
+      </c>
+      <c r="Y222" s="3">
+        <v>15</v>
+      </c>
+      <c r="Z222" s="3">
+        <v>14</v>
+      </c>
+      <c r="AB222" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="223" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>244</v>
+      </c>
+      <c r="B223" t="s">
+        <v>245</v>
+      </c>
+      <c r="C223" s="5">
+        <v>1</v>
+      </c>
+      <c r="D223" s="7">
+        <v>73</v>
+      </c>
+      <c r="E223" s="7">
+        <v>74</v>
+      </c>
+      <c r="F223" s="7">
+        <v>74</v>
+      </c>
+      <c r="H223" s="7">
+        <v>12</v>
+      </c>
+      <c r="I223" s="7">
+        <v>12</v>
+      </c>
+      <c r="J223" s="7">
+        <v>12</v>
+      </c>
+      <c r="L223" s="7">
+        <v>5</v>
+      </c>
+      <c r="M223" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="N223" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="P223" s="7">
+        <v>38</v>
+      </c>
+      <c r="Q223" s="7">
+        <v>38</v>
+      </c>
+      <c r="R223" s="7">
+        <v>38</v>
+      </c>
+      <c r="T223" s="3">
+        <v>22</v>
+      </c>
+      <c r="U223" s="3">
+        <v>21</v>
+      </c>
+      <c r="V223" s="3">
+        <v>21</v>
+      </c>
+      <c r="X223" s="3">
+        <v>22</v>
+      </c>
+      <c r="Y223" s="3">
+        <v>22</v>
+      </c>
+      <c r="Z223" s="3">
+        <v>22</v>
+      </c>
+      <c r="AB223" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="224" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C224" s="5">
+        <v>2</v>
+      </c>
+      <c r="D224" s="7">
+        <v>60</v>
+      </c>
+      <c r="E224" s="7">
+        <v>61</v>
+      </c>
+      <c r="F224" s="7">
+        <v>62</v>
+      </c>
+      <c r="H224" s="7">
+        <v>10</v>
+      </c>
+      <c r="I224" s="7">
+        <v>11</v>
+      </c>
+      <c r="J224" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="L224" s="7">
+        <v>5</v>
+      </c>
+      <c r="M224" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="N224" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="P224" s="7">
+        <v>36</v>
+      </c>
+      <c r="Q224" s="7">
+        <v>37</v>
+      </c>
+      <c r="R224" s="7">
+        <v>36</v>
+      </c>
+      <c r="T224" s="3">
+        <v>16</v>
+      </c>
+      <c r="U224" s="3">
+        <v>17</v>
+      </c>
+      <c r="V224" s="3">
+        <v>17</v>
+      </c>
+      <c r="X224" s="3">
+        <v>15</v>
+      </c>
+      <c r="Y224" s="3">
+        <v>16</v>
+      </c>
+      <c r="Z224" s="3">
+        <v>16</v>
+      </c>
+      <c r="AB224" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="225" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C225" s="5">
+        <v>3</v>
+      </c>
+      <c r="D225" s="7">
+        <v>69</v>
+      </c>
+      <c r="E225" s="7">
+        <v>70</v>
+      </c>
+      <c r="F225" s="7">
+        <v>70</v>
+      </c>
+      <c r="H225" s="7">
+        <v>11</v>
+      </c>
+      <c r="I225" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="J225" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="L225" s="7">
+        <v>5</v>
+      </c>
+      <c r="M225" s="7">
+        <v>5</v>
+      </c>
+      <c r="N225" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="P225" s="7">
+        <v>40</v>
+      </c>
+      <c r="Q225" s="7">
+        <v>40</v>
+      </c>
+      <c r="R225" s="7">
+        <v>39</v>
+      </c>
+      <c r="T225" s="3">
+        <v>21</v>
+      </c>
+      <c r="U225" s="3">
+        <v>22</v>
+      </c>
+      <c r="V225" s="3">
+        <v>21</v>
+      </c>
+      <c r="X225" s="3">
+        <v>21</v>
+      </c>
+      <c r="Y225" s="3">
+        <v>20</v>
+      </c>
+      <c r="Z225" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB225" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="226" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C226" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C227" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>218</v>
+      </c>
+      <c r="B228" t="s">
+        <v>219</v>
+      </c>
+      <c r="C228" s="5">
+        <v>1</v>
+      </c>
+      <c r="D228" s="7">
+        <v>60</v>
+      </c>
+      <c r="E228" s="7">
+        <v>59</v>
+      </c>
+      <c r="F228" s="7">
+        <v>58</v>
+      </c>
+      <c r="H228" s="7">
+        <v>11</v>
+      </c>
+      <c r="I228" s="7">
+        <v>11</v>
+      </c>
+      <c r="J228" s="7">
+        <v>11</v>
+      </c>
+      <c r="L228" s="7">
+        <v>4</v>
+      </c>
+      <c r="M228" s="7">
+        <v>4</v>
+      </c>
+      <c r="N228" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="P228" s="7">
+        <v>32</v>
+      </c>
+      <c r="Q228" s="7">
+        <v>31</v>
+      </c>
+      <c r="R228" s="7">
+        <v>31</v>
+      </c>
+      <c r="T228" s="3">
+        <v>15</v>
+      </c>
+      <c r="U228" s="3">
+        <v>15</v>
+      </c>
+      <c r="V228" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="X228" s="3">
+        <v>15</v>
+      </c>
+      <c r="Y228" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="Z228" s="3">
+        <v>16</v>
+      </c>
+      <c r="AB228" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="229" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C229" s="5">
+        <v>2</v>
+      </c>
+      <c r="D229" s="7">
+        <v>65</v>
+      </c>
+      <c r="E229" s="7">
+        <v>66</v>
+      </c>
+      <c r="F229" s="7">
+        <v>66</v>
+      </c>
+      <c r="H229" s="7">
+        <v>10</v>
+      </c>
+      <c r="I229" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="J229" s="7">
+        <v>11</v>
+      </c>
+      <c r="L229" s="7">
+        <v>4</v>
+      </c>
+      <c r="M229" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="N229" s="7">
+        <v>4</v>
+      </c>
+      <c r="P229" s="7">
+        <v>34</v>
+      </c>
+      <c r="Q229" s="7">
+        <v>33</v>
+      </c>
+      <c r="R229" s="7">
+        <v>34</v>
+      </c>
+      <c r="T229" s="3">
+        <v>15</v>
+      </c>
+      <c r="U229" s="3">
+        <v>16</v>
+      </c>
+      <c r="V229" s="3">
+        <v>16</v>
+      </c>
+      <c r="X229" s="3">
+        <v>17</v>
+      </c>
+      <c r="Y229" s="3">
+        <v>17</v>
+      </c>
+      <c r="Z229" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="AB229" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="230" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C230" s="5">
+        <v>3</v>
+      </c>
+      <c r="D230" s="7">
+        <v>58</v>
+      </c>
+      <c r="E230" s="7">
+        <v>59</v>
+      </c>
+      <c r="F230" s="7">
+        <v>58</v>
+      </c>
+      <c r="H230" s="7">
+        <v>11</v>
+      </c>
+      <c r="I230" s="7">
+        <v>10</v>
+      </c>
+      <c r="J230" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="L230" s="7">
+        <v>4</v>
+      </c>
+      <c r="M230" s="7">
+        <v>4</v>
+      </c>
+      <c r="N230" s="7">
+        <v>4</v>
+      </c>
+      <c r="P230" s="7">
+        <v>35</v>
+      </c>
+      <c r="Q230" s="7">
+        <v>34</v>
+      </c>
+      <c r="R230" s="7">
+        <v>34</v>
+      </c>
+      <c r="T230" s="3">
+        <v>15</v>
+      </c>
+      <c r="U230" s="3">
+        <v>16</v>
+      </c>
+      <c r="V230" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="X230" s="3">
+        <v>16</v>
+      </c>
+      <c r="Y230" s="3">
+        <v>17</v>
+      </c>
+      <c r="Z230" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="AB230" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="231" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C231" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C232" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C233" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>233</v>
+      </c>
+      <c r="C234" s="5">
+        <v>1</v>
+      </c>
+      <c r="D234" s="7">
+        <v>112</v>
+      </c>
+      <c r="E234" s="7">
+        <v>113</v>
+      </c>
+      <c r="F234" s="7">
+        <v>113</v>
+      </c>
+      <c r="H234" s="7">
+        <v>23</v>
+      </c>
+      <c r="I234" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="J234" s="7">
+        <v>24</v>
+      </c>
+      <c r="L234" s="7">
+        <v>7</v>
+      </c>
+      <c r="M234" s="7">
+        <v>7</v>
+      </c>
+      <c r="N234" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="P234" s="7">
+        <v>73</v>
+      </c>
+      <c r="Q234" s="7">
+        <v>74</v>
+      </c>
+      <c r="R234" s="7">
+        <v>75</v>
+      </c>
+      <c r="T234" s="3">
+        <v>39</v>
+      </c>
+      <c r="U234" s="3">
+        <v>38</v>
+      </c>
+      <c r="V234" s="3">
+        <v>39</v>
+      </c>
+      <c r="X234" s="3">
+        <v>37</v>
+      </c>
+      <c r="Y234" s="3">
+        <v>38</v>
+      </c>
+      <c r="Z234" s="3">
+        <v>37</v>
+      </c>
+      <c r="AB234" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="235" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>226</v>
+      </c>
+      <c r="B235" t="s">
+        <v>227</v>
+      </c>
+      <c r="C235" s="5">
+        <v>1</v>
+      </c>
+      <c r="D235" s="7">
+        <v>109</v>
+      </c>
+      <c r="E235" s="7">
+        <v>108</v>
+      </c>
+      <c r="F235" s="7">
+        <v>109</v>
+      </c>
+      <c r="H235" s="7">
+        <v>21</v>
+      </c>
+      <c r="I235" s="7">
+        <v>21</v>
+      </c>
+      <c r="J235" s="7">
+        <v>21.5</v>
+      </c>
+      <c r="L235" s="7">
+        <v>6</v>
+      </c>
+      <c r="M235" s="7">
+        <v>6</v>
+      </c>
+      <c r="N235" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="P235" s="7">
+        <v>42</v>
+      </c>
+      <c r="Q235" s="7">
+        <v>43</v>
+      </c>
+      <c r="R235" s="7">
+        <v>42</v>
+      </c>
+      <c r="T235" s="3">
+        <v>28</v>
+      </c>
+      <c r="U235" s="3">
+        <v>29</v>
+      </c>
+      <c r="V235" s="3">
+        <v>28</v>
+      </c>
+      <c r="X235" s="3">
+        <v>20</v>
+      </c>
+      <c r="Y235" s="3">
+        <v>19</v>
+      </c>
+      <c r="Z235" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="AB235" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="236" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>220</v>
+      </c>
+      <c r="B236" t="s">
+        <v>221</v>
+      </c>
+      <c r="C236" s="5">
+        <v>1</v>
+      </c>
+      <c r="D236" s="7">
+        <v>47</v>
+      </c>
+      <c r="E236" s="7">
+        <v>48</v>
+      </c>
+      <c r="F236" s="7">
+        <v>48</v>
+      </c>
+      <c r="H236" s="7">
+        <v>16</v>
+      </c>
+      <c r="I236" s="7">
+        <v>16</v>
+      </c>
+      <c r="J236" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="L236" s="7">
+        <v>8</v>
+      </c>
+      <c r="M236" s="7">
+        <v>8</v>
+      </c>
+      <c r="N236" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="P236" s="7">
+        <v>17</v>
+      </c>
+      <c r="Q236" s="7">
+        <v>16</v>
+      </c>
+      <c r="R236" s="7">
+        <v>16</v>
+      </c>
+      <c r="T236" s="3">
+        <v>11</v>
+      </c>
+      <c r="U236" s="3">
+        <v>10</v>
+      </c>
+      <c r="V236" s="3">
+        <v>10</v>
+      </c>
+      <c r="X236" s="3">
+        <v>11</v>
+      </c>
+      <c r="Y236" s="3">
+        <v>11</v>
+      </c>
+      <c r="Z236" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB236" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="237" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C237" s="5">
+        <v>2</v>
+      </c>
+      <c r="D237" s="7">
+        <v>47</v>
+      </c>
+      <c r="E237" s="7">
+        <v>48</v>
+      </c>
+      <c r="F237" s="7">
+        <v>47</v>
+      </c>
+      <c r="H237" s="7">
+        <v>16</v>
+      </c>
+      <c r="I237" s="7">
+        <v>16</v>
+      </c>
+      <c r="J237" s="7">
+        <v>17</v>
+      </c>
+      <c r="L237" s="7">
+        <v>8</v>
+      </c>
+      <c r="M237" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="N237" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="P237" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q237" s="7">
+        <v>14</v>
+      </c>
+      <c r="R237" s="7">
+        <v>15</v>
+      </c>
+      <c r="T237" s="3">
+        <v>10</v>
+      </c>
+      <c r="U237" s="3">
+        <v>10</v>
+      </c>
+      <c r="V237" s="3">
+        <v>11</v>
+      </c>
+      <c r="X237" s="3">
+        <v>11</v>
+      </c>
+      <c r="Y237" s="3">
+        <v>12</v>
+      </c>
+      <c r="Z237" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="AB237" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="238" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>212</v>
+      </c>
+      <c r="B238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C238" s="5">
+        <v>1</v>
+      </c>
+      <c r="H238" s="7">
+        <v>15</v>
+      </c>
+      <c r="I238" s="7">
+        <v>16</v>
+      </c>
+      <c r="J238" s="7">
+        <v>15</v>
+      </c>
+      <c r="L238" s="7">
+        <v>5</v>
+      </c>
+      <c r="M238" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="N238" s="7">
+        <v>5</v>
+      </c>
+      <c r="P238" s="7">
+        <v>40</v>
+      </c>
+      <c r="Q238" s="7">
+        <v>40</v>
+      </c>
+      <c r="R238" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="239" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C239" s="5">
+        <v>2</v>
+      </c>
+      <c r="D239" s="7">
+        <v>90</v>
+      </c>
+      <c r="E239" s="7">
+        <v>91</v>
+      </c>
+      <c r="F239" s="7">
+        <v>92</v>
+      </c>
+      <c r="H239" s="7">
+        <v>15</v>
+      </c>
+      <c r="I239" s="7">
+        <v>16</v>
+      </c>
+      <c r="J239" s="7">
+        <v>16</v>
+      </c>
+      <c r="L239" s="7">
+        <v>5</v>
+      </c>
+      <c r="M239" s="7">
+        <v>5</v>
+      </c>
+      <c r="N239" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="P239" s="7">
+        <v>39</v>
+      </c>
+      <c r="Q239" s="7">
+        <v>40</v>
+      </c>
+      <c r="R239" s="7">
+        <v>39</v>
+      </c>
+      <c r="T239" s="3">
+        <v>21</v>
+      </c>
+      <c r="U239" s="3">
+        <v>22</v>
+      </c>
+      <c r="V239" s="3">
+        <v>21</v>
+      </c>
+      <c r="X239" s="3">
+        <v>22</v>
+      </c>
+      <c r="Y239" s="3">
+        <v>23</v>
+      </c>
+      <c r="Z239" s="3">
+        <v>23</v>
+      </c>
+      <c r="AB239" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="240" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>210</v>
+      </c>
+      <c r="B240" t="s">
+        <v>211</v>
+      </c>
+      <c r="C240" s="5">
+        <v>1</v>
+      </c>
+      <c r="D240" s="7">
+        <v>93</v>
+      </c>
+      <c r="E240" s="7">
+        <v>94</v>
+      </c>
+      <c r="F240" s="7">
+        <v>93</v>
+      </c>
+      <c r="H240" s="7">
+        <v>18</v>
+      </c>
+      <c r="I240" s="7">
+        <v>18</v>
+      </c>
+      <c r="J240" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="L240" s="7">
+        <v>5</v>
+      </c>
+      <c r="M240" s="7">
+        <v>5</v>
+      </c>
+      <c r="N240" s="7">
+        <v>5</v>
+      </c>
+      <c r="P240" s="7">
+        <v>34</v>
+      </c>
+      <c r="Q240" s="7">
+        <v>34</v>
+      </c>
+      <c r="R240" s="7">
+        <v>35</v>
+      </c>
+      <c r="T240" s="3">
+        <v>24</v>
+      </c>
+      <c r="U240" s="3">
+        <v>23</v>
+      </c>
+      <c r="V240" s="3">
+        <v>23</v>
+      </c>
+      <c r="X240" s="3">
+        <v>25</v>
+      </c>
+      <c r="Y240" s="3">
+        <v>25</v>
+      </c>
+      <c r="Z240" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB240" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="241" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C241" s="5">
+        <v>2</v>
+      </c>
+      <c r="D241" s="7">
+        <v>105</v>
+      </c>
+      <c r="E241" s="7">
+        <v>105</v>
+      </c>
+      <c r="F241" s="7">
+        <v>106</v>
+      </c>
+      <c r="H241" s="7">
+        <v>19.5</v>
+      </c>
+      <c r="I241" s="7">
+        <v>19.5</v>
+      </c>
+      <c r="J241" s="7">
+        <v>20</v>
+      </c>
+      <c r="L241" s="7">
+        <v>5</v>
+      </c>
+      <c r="M241" s="7">
+        <v>6</v>
+      </c>
+      <c r="N241" s="7">
+        <v>6</v>
+      </c>
+      <c r="P241" s="7">
+        <v>35</v>
+      </c>
+      <c r="Q241" s="7">
+        <v>36</v>
+      </c>
+      <c r="R241" s="7">
+        <v>36</v>
+      </c>
+      <c r="T241" s="3">
+        <v>25</v>
+      </c>
+      <c r="U241" s="3">
+        <v>26</v>
+      </c>
+      <c r="V241" s="3">
+        <v>26</v>
+      </c>
+      <c r="X241" s="3">
+        <v>25</v>
+      </c>
+      <c r="Y241" s="3">
+        <v>26</v>
+      </c>
+      <c r="Z241" s="3">
+        <v>26</v>
+      </c>
+      <c r="AB241" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="242" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C242" s="5">
+        <v>3</v>
+      </c>
+      <c r="D242" s="7">
+        <v>89</v>
+      </c>
+      <c r="E242" s="7">
+        <v>90</v>
+      </c>
+      <c r="F242" s="7">
+        <v>89</v>
+      </c>
+      <c r="H242" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="I242" s="7">
+        <v>18</v>
+      </c>
+      <c r="J242" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="L242" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="M242" s="7">
+        <v>4</v>
+      </c>
+      <c r="N242" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="P242" s="7">
+        <v>34</v>
+      </c>
+      <c r="Q242" s="7">
+        <v>35</v>
+      </c>
+      <c r="R242" s="7">
+        <v>34</v>
+      </c>
+      <c r="T242" s="3">
+        <v>23</v>
+      </c>
+      <c r="U242" s="3">
+        <v>24</v>
+      </c>
+      <c r="V242" s="3">
+        <v>24</v>
+      </c>
+      <c r="X242" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="Y242" s="3">
+        <v>24</v>
+      </c>
+      <c r="Z242" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="AB242" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="243" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C243" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C244" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>250</v>
+      </c>
+      <c r="B245" t="s">
+        <v>209</v>
+      </c>
+      <c r="C245" s="5">
+        <v>1</v>
+      </c>
+      <c r="D245" s="7">
+        <v>77</v>
+      </c>
+      <c r="E245" s="7">
+        <v>78</v>
+      </c>
+      <c r="F245" s="7">
+        <v>77</v>
+      </c>
+      <c r="H245" s="7">
+        <v>13</v>
+      </c>
+      <c r="I245" s="7">
+        <v>14</v>
+      </c>
+      <c r="J245" s="7">
+        <v>14</v>
+      </c>
+      <c r="L245" s="7">
+        <v>6</v>
+      </c>
+      <c r="M245" s="7">
+        <v>6</v>
+      </c>
+      <c r="N245" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="P245" s="7">
+        <v>37</v>
+      </c>
+      <c r="Q245" s="7">
+        <v>38</v>
+      </c>
+      <c r="R245" s="7">
+        <v>38</v>
+      </c>
+      <c r="T245" s="3">
+        <v>18</v>
+      </c>
+      <c r="U245" s="3">
+        <v>17</v>
+      </c>
+      <c r="V245" s="3">
+        <v>18</v>
+      </c>
+      <c r="X245" s="3">
+        <v>22</v>
+      </c>
+      <c r="Y245" s="3">
+        <v>23</v>
+      </c>
+      <c r="Z245" s="3">
+        <v>22</v>
+      </c>
+      <c r="AB245" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="246" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C246" s="5">
+        <v>2</v>
+      </c>
+      <c r="H246" s="7">
+        <v>14</v>
+      </c>
+      <c r="I246" s="7">
+        <v>14.5</v>
+      </c>
+      <c r="J246" s="7">
+        <v>14</v>
+      </c>
+      <c r="L246" s="7">
+        <v>5</v>
+      </c>
+      <c r="M246" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="N246" s="7">
+        <v>5</v>
+      </c>
+      <c r="P246" s="7">
+        <v>38</v>
+      </c>
+      <c r="Q246" s="7">
+        <v>39</v>
+      </c>
+      <c r="R246" s="7">
+        <v>39</v>
+      </c>
+      <c r="T246" s="3">
+        <v>24</v>
+      </c>
+      <c r="U246" s="3">
+        <v>23</v>
+      </c>
+      <c r="V246" s="3">
+        <v>23</v>
+      </c>
+      <c r="X246" s="3">
+        <v>24</v>
+      </c>
+      <c r="Y246" s="3">
+        <v>25</v>
+      </c>
+      <c r="Z246" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB246" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="247" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>194</v>
+      </c>
+      <c r="B247" t="s">
+        <v>195</v>
+      </c>
+      <c r="C247" s="5">
+        <v>1</v>
+      </c>
+      <c r="D247" s="7">
+        <v>101</v>
+      </c>
+      <c r="E247" s="7">
+        <v>101</v>
+      </c>
+      <c r="F247" s="7">
+        <v>102</v>
+      </c>
+      <c r="H247" s="7">
+        <v>20</v>
+      </c>
+      <c r="I247" s="7">
+        <v>21</v>
+      </c>
+      <c r="J247" s="7">
+        <v>21</v>
+      </c>
+      <c r="L247" s="7">
+        <v>7</v>
+      </c>
+      <c r="M247" s="7">
+        <v>8</v>
+      </c>
+      <c r="N247" s="7">
+        <v>8</v>
+      </c>
+      <c r="P247" s="7">
+        <v>50</v>
+      </c>
+      <c r="Q247" s="7">
+        <v>52</v>
+      </c>
+      <c r="R247" s="7">
+        <v>53</v>
+      </c>
+      <c r="T247" s="3">
+        <v>26</v>
+      </c>
+      <c r="U247" s="3">
+        <v>27</v>
+      </c>
+      <c r="V247" s="3">
+        <v>26</v>
+      </c>
+      <c r="X247" s="3">
+        <v>25</v>
+      </c>
+      <c r="Y247" s="3">
+        <v>26</v>
+      </c>
+      <c r="Z247" s="3">
+        <v>26</v>
+      </c>
+      <c r="AB247" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="248" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>202</v>
+      </c>
+      <c r="B248" t="s">
+        <v>203</v>
+      </c>
+      <c r="C248" s="5">
+        <v>1</v>
+      </c>
+      <c r="D248" s="7">
+        <v>96</v>
+      </c>
+      <c r="E248" s="7">
+        <v>97</v>
+      </c>
+      <c r="F248" s="7">
+        <v>96</v>
+      </c>
+      <c r="H248" s="7">
+        <v>19.5</v>
+      </c>
+      <c r="I248" s="7">
+        <v>20</v>
+      </c>
+      <c r="J248" s="7">
+        <v>20</v>
+      </c>
+      <c r="L248" s="7">
+        <v>8</v>
+      </c>
+      <c r="M248" s="7">
+        <v>8</v>
+      </c>
+      <c r="N248" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="P248" s="7">
+        <v>45</v>
+      </c>
+      <c r="Q248" s="7">
+        <v>46</v>
+      </c>
+      <c r="R248" s="7">
+        <v>47</v>
+      </c>
+      <c r="T248" s="3">
+        <v>22</v>
+      </c>
+      <c r="U248" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="V248" s="3">
+        <v>22</v>
+      </c>
+      <c r="X248" s="3">
+        <v>25</v>
+      </c>
+      <c r="Y248" s="3">
+        <v>25</v>
+      </c>
+      <c r="Z248" s="3">
+        <v>26</v>
+      </c>
+      <c r="AB248" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="249" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>204</v>
+      </c>
+      <c r="B249" t="s">
+        <v>205</v>
+      </c>
+      <c r="C249" s="5">
+        <v>1</v>
+      </c>
+      <c r="D249" s="7">
+        <v>88</v>
+      </c>
+      <c r="E249" s="7">
+        <v>89</v>
+      </c>
+      <c r="F249" s="7">
+        <v>89</v>
+      </c>
+      <c r="H249" s="7">
+        <v>15</v>
+      </c>
+      <c r="I249" s="7">
+        <v>16</v>
+      </c>
+      <c r="J249" s="7">
+        <v>15</v>
+      </c>
+      <c r="L249" s="7">
+        <v>5</v>
+      </c>
+      <c r="M249" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="N249" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="P249" s="7">
+        <v>48</v>
+      </c>
+      <c r="Q249" s="7">
+        <v>47</v>
+      </c>
+      <c r="R249" s="7">
+        <v>48</v>
+      </c>
+      <c r="T249" s="3">
+        <v>22</v>
+      </c>
+      <c r="U249" s="3">
+        <v>23</v>
+      </c>
+      <c r="V249" s="3">
+        <v>22</v>
+      </c>
+      <c r="X249" s="3">
+        <v>25</v>
+      </c>
+      <c r="Y249" s="3">
+        <v>24</v>
+      </c>
+      <c r="Z249" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB249" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="250" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C250" s="5">
+        <v>2</v>
+      </c>
+      <c r="D250" s="7">
+        <v>92</v>
+      </c>
+      <c r="E250" s="7">
+        <v>92</v>
+      </c>
+      <c r="F250" s="7">
+        <v>91</v>
+      </c>
+      <c r="H250" s="7">
+        <v>16</v>
+      </c>
+      <c r="I250" s="7">
+        <v>15.5</v>
+      </c>
+      <c r="J250" s="7">
+        <v>16</v>
+      </c>
+      <c r="L250" s="7">
+        <v>6</v>
+      </c>
+      <c r="M250" s="7">
+        <v>6</v>
+      </c>
+      <c r="N250" s="7">
+        <v>6</v>
+      </c>
+      <c r="P250" s="7">
+        <v>46</v>
+      </c>
+      <c r="Q250" s="7">
+        <v>47</v>
+      </c>
+      <c r="R250" s="7">
+        <v>47</v>
+      </c>
+      <c r="T250" s="3">
+        <v>21</v>
+      </c>
+      <c r="U250" s="3">
+        <v>22</v>
+      </c>
+      <c r="V250" s="3">
+        <v>22</v>
+      </c>
+      <c r="X250" s="3">
+        <v>23</v>
+      </c>
+      <c r="Y250" s="3">
+        <v>24</v>
+      </c>
+      <c r="Z250" s="3">
+        <v>24</v>
+      </c>
+      <c r="AB250" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="251" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C251" s="5">
+        <v>3</v>
+      </c>
+      <c r="D251" s="7">
+        <v>81</v>
+      </c>
+      <c r="E251" s="7">
+        <v>82</v>
+      </c>
+      <c r="F251" s="7">
+        <v>82</v>
+      </c>
+      <c r="H251" s="7">
+        <v>14</v>
+      </c>
+      <c r="I251" s="7">
+        <v>14</v>
+      </c>
+      <c r="J251" s="7">
+        <v>15</v>
+      </c>
+      <c r="L251" s="7">
+        <v>5</v>
+      </c>
+      <c r="M251" s="7">
+        <v>6</v>
+      </c>
+      <c r="N251" s="7">
+        <v>6</v>
+      </c>
+      <c r="P251" s="7">
+        <v>41</v>
+      </c>
+      <c r="Q251" s="7">
+        <v>42</v>
+      </c>
+      <c r="R251" s="7">
+        <v>43</v>
+      </c>
+      <c r="T251" s="3">
+        <v>24</v>
+      </c>
+      <c r="U251" s="3">
+        <v>24</v>
+      </c>
+      <c r="V251" s="3">
+        <v>23</v>
+      </c>
+      <c r="X251" s="3">
+        <v>23</v>
+      </c>
+      <c r="Y251" s="3">
+        <v>23</v>
+      </c>
+      <c r="Z251" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="AB251" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="252" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C252" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C253" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>214</v>
+      </c>
+      <c r="B254" t="s">
+        <v>215</v>
+      </c>
+      <c r="C254" s="5">
+        <v>1</v>
+      </c>
+      <c r="D254" s="7">
+        <v>145</v>
+      </c>
+      <c r="E254" s="7">
+        <v>146</v>
+      </c>
+      <c r="F254" s="7">
+        <v>147</v>
+      </c>
+      <c r="H254" s="7">
+        <v>25</v>
+      </c>
+      <c r="I254" s="7">
+        <v>25</v>
+      </c>
+      <c r="J254" s="7">
+        <v>25</v>
+      </c>
+      <c r="L254" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="M254" s="7">
+        <v>7</v>
+      </c>
+      <c r="N254" s="7">
+        <v>7</v>
+      </c>
+      <c r="P254" s="7">
+        <v>76</v>
+      </c>
+      <c r="Q254" s="7">
+        <v>78</v>
+      </c>
+      <c r="R254" s="7">
+        <v>78</v>
+      </c>
+      <c r="T254" s="3">
+        <v>45</v>
+      </c>
+      <c r="U254" s="3">
+        <v>45</v>
+      </c>
+      <c r="V254" s="3">
+        <v>46</v>
+      </c>
+      <c r="X254" s="3">
+        <v>39</v>
+      </c>
+      <c r="Y254" s="3">
+        <v>39</v>
+      </c>
+      <c r="Z254" s="3">
+        <v>40</v>
+      </c>
+      <c r="AB254" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="255" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C255" s="5">
+        <v>2</v>
+      </c>
+      <c r="D255" s="7">
+        <v>154</v>
+      </c>
+      <c r="E255" s="7">
+        <v>155</v>
+      </c>
+      <c r="F255" s="7">
+        <v>154</v>
+      </c>
+      <c r="H255" s="7">
+        <v>24</v>
+      </c>
+      <c r="I255" s="7">
+        <v>24</v>
+      </c>
+      <c r="J255" s="7">
+        <v>25</v>
+      </c>
+      <c r="L255" s="7">
+        <v>8</v>
+      </c>
+      <c r="M255" s="7">
+        <v>7</v>
+      </c>
+      <c r="N255" s="7">
+        <v>8</v>
+      </c>
+      <c r="P255" s="7">
+        <v>83</v>
+      </c>
+      <c r="Q255" s="7">
+        <v>84</v>
+      </c>
+      <c r="R255" s="7">
+        <v>84</v>
+      </c>
+      <c r="T255" s="3">
+        <v>49</v>
+      </c>
+      <c r="U255" s="3">
+        <v>48</v>
+      </c>
+      <c r="V255" s="3">
+        <v>49</v>
+      </c>
+      <c r="X255" s="3">
+        <v>39</v>
+      </c>
+      <c r="Y255" s="3">
+        <v>40</v>
+      </c>
+      <c r="Z255" s="3">
+        <v>39</v>
+      </c>
+      <c r="AB255" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="256" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C256" s="5">
+        <v>3</v>
+      </c>
+      <c r="D256" s="7">
+        <v>135</v>
+      </c>
+      <c r="E256" s="7">
+        <v>136</v>
+      </c>
+      <c r="F256" s="7">
+        <v>135</v>
+      </c>
+      <c r="H256" s="7">
+        <v>23</v>
+      </c>
+      <c r="I256" s="7">
+        <v>23</v>
+      </c>
+      <c r="J256" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="L256" s="7">
+        <v>6</v>
+      </c>
+      <c r="M256" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="N256" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="P256" s="7">
+        <v>73</v>
+      </c>
+      <c r="Q256" s="7">
+        <v>74</v>
+      </c>
+      <c r="R256" s="7">
+        <v>75</v>
+      </c>
+      <c r="T256" s="3">
+        <v>44</v>
+      </c>
+      <c r="U256" s="3">
+        <v>44</v>
+      </c>
+      <c r="V256" s="3">
+        <v>43</v>
+      </c>
+      <c r="X256" s="3">
+        <v>38</v>
+      </c>
+      <c r="Y256" s="3">
+        <v>39</v>
+      </c>
+      <c r="Z256" s="3">
+        <v>38</v>
+      </c>
+      <c r="AB256" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="257" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C257" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C258" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>248</v>
+      </c>
+      <c r="B259" t="s">
+        <v>249</v>
+      </c>
+      <c r="C259" s="5">
+        <v>1</v>
+      </c>
+      <c r="D259" s="7">
+        <v>72</v>
+      </c>
+      <c r="E259" s="7">
+        <v>73</v>
+      </c>
+      <c r="F259" s="7">
+        <v>72</v>
+      </c>
+      <c r="H259" s="7">
+        <v>14</v>
+      </c>
+      <c r="I259" s="7">
+        <v>14.5</v>
+      </c>
+      <c r="J259" s="7">
+        <v>14.5</v>
+      </c>
+      <c r="L259" s="7">
+        <v>4</v>
+      </c>
+      <c r="M259" s="7">
+        <v>4</v>
+      </c>
+      <c r="N259" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="P259" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="Q259" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="R259" s="7">
+        <v>24</v>
+      </c>
+      <c r="T259" s="3">
+        <v>29</v>
+      </c>
+      <c r="U259" s="3">
+        <v>28</v>
+      </c>
+      <c r="V259" s="3">
+        <v>28</v>
+      </c>
+      <c r="X259" s="3">
+        <v>15</v>
+      </c>
+      <c r="Y259" s="3">
+        <v>15</v>
+      </c>
+      <c r="Z259" s="3">
+        <v>14</v>
+      </c>
+      <c r="AB259" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -19216,7 +21591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DD06EA-D46F-4037-85EA-1187E2D95676}">
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
@@ -21585,79 +23960,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32">
         <v>38.333333333333336</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32">
         <f t="shared" si="0"/>
         <v>3.8333333333333335</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32">
         <v>8.1666666666666661</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32">
         <f t="shared" si="1"/>
         <v>0.81666666666666665</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32">
         <f t="shared" si="2"/>
         <v>0.21304347826086956</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32">
         <v>2</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32">
         <f t="shared" si="4"/>
         <v>5.2173913043478265E-2</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32">
         <v>16.333333333333332</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32">
         <f t="shared" si="5"/>
         <v>1.6333333333333333</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32">
         <f t="shared" si="6"/>
         <v>0.42608695652173911</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32">
         <v>8.1666666666666661</v>
       </c>
-      <c r="O32" s="10">
+      <c r="O32">
         <f t="shared" si="7"/>
         <v>0.81666666666666665</v>
       </c>
-      <c r="P32" s="10">
+      <c r="P32">
         <f t="shared" si="8"/>
         <v>0.21304347826086956</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32">
         <v>9.1666666666666661</v>
       </c>
-      <c r="R32" s="10">
+      <c r="R32">
         <f t="shared" si="9"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="S32" s="10">
+      <c r="S32">
         <f t="shared" si="10"/>
         <v>0.23913043478260868</v>
       </c>
-      <c r="T32" s="11" t="s">
+      <c r="T32" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="U32" s="10">
+      <c r="U32">
         <v>10</v>
       </c>
     </row>
@@ -23872,1984 +26247,2018 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A206CABB-ABE4-46DD-AA57-1E467524ABE0}">
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="10"/>
-    <col min="10" max="10" width="13.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="10">
         <v>11.694444444444445</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="10">
         <v>0.1881235154394299</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="10">
         <v>3.8954869358669826E-2</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="10">
         <v>0.41757719714964375</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="10">
         <v>0.39714964370546318</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="10">
         <v>0.24370546318289787</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="10">
         <v>0.640855106888361</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="10">
         <v>12.922222222222222</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="10">
         <v>0.18336199484092863</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="10">
         <v>3.3963886500429918E-2</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="10">
         <v>0.42519346517626827</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="10">
         <v>0.23645743766122099</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="10">
         <v>0.24677558039552877</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="10">
         <v>0.48323301805674979</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="10">
         <v>16.911111111111111</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="10">
         <v>0.2664257555847569</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="10">
         <v>2.792378449408673E-2</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="10">
         <v>0.24047306176084099</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="10">
         <v>0.17838370565045994</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="10">
         <v>0.18166885676741132</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="10">
         <v>0.36005256241787126</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>21.18888888888889</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5">
         <v>0.2578657577346618</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5">
         <v>6.6334556895647614E-2</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5">
         <v>0.27661248033560565</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5">
         <v>0.19454640797063452</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5">
         <v>0.17540639748295753</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5">
         <v>0.36995280545359205</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" t="s">
         <v>176</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" t="s">
         <v>177</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" t="s">
         <v>181</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6">
         <v>9.8611111111111107</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6">
         <v>0.24225352112676057</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6">
         <v>5.3521126760563385E-2</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6">
         <v>0.35774647887323946</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6">
         <v>0.22253521126760561</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6">
         <v>0.25915492957746483</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6">
         <v>0.48169014084507045</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" t="s">
         <v>176</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" t="s">
         <v>177</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" t="s">
         <v>182</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" t="s">
         <v>179</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="10">
         <v>16.211111111111112</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="10">
         <v>0.22035640849897184</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="10">
         <v>3.3241946538725149E-2</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="10">
         <v>0.33618917066483894</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="10">
         <v>0.25633995887594241</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="10">
         <v>0.22378341329677859</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="10">
         <v>0.480123372172721</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="10">
+        <v>12.388888888888888</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.22376681614349778</v>
+      </c>
+      <c r="E10" s="10">
+        <v>4.5739910313901358E-2</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.51524663677130045</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.24215246636771304</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.2488789237668162</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.49103139013452923</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="10">
+        <v>12.495370370370368</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.21378288254909228</v>
+      </c>
+      <c r="E11" s="10">
+        <v>4.9277510188958887E-2</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.32412004446091147</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.24342349018154874</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.25268618006669147</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.49610967024824021</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12">
+        <v>13.567708333333332</v>
+      </c>
+      <c r="D12">
+        <v>0.2034548944337812</v>
+      </c>
+      <c r="E12">
+        <v>4.6065259117082535E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.32629558541266795</v>
+      </c>
+      <c r="G12">
+        <v>0.23416506717850288</v>
+      </c>
+      <c r="H12">
+        <v>0.24376199616122843</v>
+      </c>
+      <c r="I12">
+        <v>0.47792706333973134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>176</v>
+      </c>
+      <c r="K12" t="s">
+        <v>177</v>
+      </c>
+      <c r="L12" t="s">
+        <v>181</v>
+      </c>
+      <c r="M12" t="s">
+        <v>179</v>
+      </c>
+      <c r="N12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="10">
+        <v>10.611111111111111</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.22513089005235604</v>
+      </c>
+      <c r="E14" s="10">
+        <v>5.2356020942408384E-2</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.38219895287958117</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.24083769633507857</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.25392670157068065</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.49476439790575921</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="10">
+        <v>10.46111111111111</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.22225172596919812</v>
+      </c>
+      <c r="E15" s="10">
+        <v>3.2129580456718002E-2</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.323951141795008</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.25013276686139141</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.23207647371216145</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0.48220924057355286</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>9.9944444444444454</v>
+      </c>
+      <c r="D16">
+        <v>0.22901612006670374</v>
+      </c>
+      <c r="E16">
+        <v>3.4463590883824349E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.3379655364091162</v>
+      </c>
+      <c r="G16">
+        <v>0.22429127292940521</v>
+      </c>
+      <c r="H16">
+        <v>0.21289605336297943</v>
+      </c>
+      <c r="I16">
+        <v>0.43718732629238466</v>
+      </c>
+      <c r="J16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" t="s">
+        <v>177</v>
+      </c>
+      <c r="L16" t="s">
+        <v>178</v>
+      </c>
+      <c r="M16" t="s">
+        <v>179</v>
+      </c>
+      <c r="N16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="10">
+        <v>8.2611111111111111</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.1980497646267653</v>
+      </c>
+      <c r="E17" s="10">
+        <v>3.3960995292535316E-2</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.38197713517148613</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0.23739071956960323</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0.21956960322797578</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.45696032279757903</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="10">
+        <v>10.755555555555555</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.19731404958677687</v>
+      </c>
+      <c r="E18" s="10">
+        <v>3.2024793388429749E-2</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.35072314049586778</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.23140495867768598</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.26084710743801653</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0.49225206611570249</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="10">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.17637540453074435</v>
+      </c>
+      <c r="E19" s="10">
+        <v>5.0161812297734629E-2</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.45307443365695788</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0.28317152103559873</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0.27346278317152101</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0.55663430420711979</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="10">
+        <v>12.922222222222222</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.17669819432502148</v>
+      </c>
+      <c r="E20" s="10">
+        <v>3.9982803095442825E-2</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.52966466036113502</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.27987962166809977</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0.28374892519346517</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0.56362854686156494</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21">
+        <v>15.854166666666666</v>
+      </c>
+      <c r="D21">
+        <v>0.18615856329391156</v>
+      </c>
+      <c r="E21">
+        <v>6.1760840998685937E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.59964958388085854</v>
+      </c>
+      <c r="G21">
+        <v>0.30530004380201492</v>
+      </c>
+      <c r="H21">
+        <v>0.28734121769601401</v>
+      </c>
+      <c r="I21">
+        <v>0.59264126149802898</v>
+      </c>
+      <c r="J21" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" t="s">
+        <v>179</v>
+      </c>
+      <c r="N21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="10">
+        <v>16.055555555555557</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.18166089965397922</v>
+      </c>
+      <c r="E22" s="10">
+        <v>5.1903114186851208E-2</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.69550173010380612</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0.29930795847750863</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0.30103806228373697</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0.60034602076124566</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23">
+        <v>16.462962962962962</v>
+      </c>
+      <c r="D23">
+        <v>0.18391451068616427</v>
+      </c>
+      <c r="E23">
+        <v>5.568053993250844E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.59167604049493805</v>
+      </c>
+      <c r="G23">
+        <v>0.32170978627671543</v>
+      </c>
+      <c r="H23">
+        <v>0.31271091113610799</v>
+      </c>
+      <c r="I23">
+        <v>0.63442069741282348</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" t="s">
+        <v>179</v>
+      </c>
+      <c r="N23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>216</v>
+      </c>
+      <c r="B25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="10">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.22317073170731713</v>
+      </c>
+      <c r="E26" s="10">
+        <v>3.1300813008130084E-2</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0.35609756097560979</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0.22764227642276422</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0.22682926829268293</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0.45447154471544715</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>5.8277777777777784</v>
+      </c>
+      <c r="D27">
+        <v>0.21353670162059102</v>
+      </c>
+      <c r="E27">
+        <v>3.8608198284080075E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.46901811248808384</v>
+      </c>
+      <c r="G27">
+        <v>0.23794089609151567</v>
+      </c>
+      <c r="H27">
+        <v>0.23736892278360336</v>
+      </c>
+      <c r="I27">
+        <v>0.47530981887511903</v>
+      </c>
+      <c r="J27" t="s">
+        <v>176</v>
+      </c>
+      <c r="K27" t="s">
+        <v>177</v>
+      </c>
+      <c r="L27" t="s">
+        <v>178</v>
+      </c>
+      <c r="M27" t="s">
+        <v>179</v>
+      </c>
+      <c r="N27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28">
+        <v>6.4333333333333327</v>
+      </c>
+      <c r="D28">
+        <v>0.21502590673575131</v>
+      </c>
+      <c r="E28">
+        <v>6.7357512953367879E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.30051813471502592</v>
+      </c>
+      <c r="G28">
+        <v>0.20725388601036274</v>
+      </c>
+      <c r="H28">
+        <v>0.22020725388601037</v>
+      </c>
+      <c r="I28">
+        <v>0.42746113989637313</v>
+      </c>
+      <c r="J28" t="s">
+        <v>176</v>
+      </c>
+      <c r="K28" t="s">
+        <v>177</v>
+      </c>
+      <c r="L28" t="s">
+        <v>178</v>
+      </c>
+      <c r="M28" t="s">
+        <v>179</v>
+      </c>
+      <c r="N28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.21367521367521369</v>
+      </c>
+      <c r="E29" s="10">
+        <v>5.1282051282051287E-2</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0.41880341880341881</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0.20512820512820515</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0.20512820512820515</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0.4102564102564103</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>238</v>
+      </c>
+      <c r="B33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="10">
+        <v>8.7777777777777768</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.23101265822784811</v>
+      </c>
+      <c r="E34" s="10">
+        <v>6.3291139240506333E-2</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0.28164556962025322</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0.25949367088607594</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0.24050632911392408</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="10">
+        <v>7.3250000000000002</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.20477815699658702</v>
+      </c>
+      <c r="E35" s="10">
+        <v>6.3708759954493738E-2</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0.34812286689419791</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0.21387940841865755</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0.21956769055745168</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0.43344709897610922</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="10">
+        <v>7.55</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0.20676968359087569</v>
+      </c>
+      <c r="E36" s="10">
+        <v>6.0338484179543787E-2</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0.34878587196467992</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0.25827814569536423</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0.20824135393671819</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0.46651949963208239</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="10">
+        <v>7.25</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.19770114942528735</v>
+      </c>
+      <c r="E37" s="10">
+        <v>5.6321839080459776E-2</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0.25747126436781609</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0.22643678160919542</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0.22758620689655171</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0.45402298850574713</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38">
+        <v>7.6777777777777771</v>
+      </c>
+      <c r="D38">
+        <v>0.19971056439942117</v>
+      </c>
+      <c r="E38">
+        <v>5.6439942112879886E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.3400868306801737</v>
+      </c>
+      <c r="G38">
+        <v>0.25325615050651229</v>
+      </c>
+      <c r="H38">
+        <v>0.23661360347322724</v>
+      </c>
+      <c r="I38">
+        <v>0.48986975397973953</v>
+      </c>
+      <c r="J38" t="s">
+        <v>176</v>
+      </c>
+      <c r="K38" t="s">
+        <v>177</v>
+      </c>
+      <c r="L38" t="s">
+        <v>182</v>
+      </c>
+      <c r="M38" t="s">
+        <v>179</v>
+      </c>
+      <c r="N38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43">
+        <v>6.4222222222222225</v>
+      </c>
+      <c r="D43">
+        <v>0.17387543252595156</v>
+      </c>
+      <c r="E43">
+        <v>4.8442906574394456E-2</v>
+      </c>
+      <c r="F43">
+        <v>0.25692041522491349</v>
+      </c>
+      <c r="G43">
+        <v>0.1444636678200692</v>
+      </c>
+      <c r="H43">
+        <v>0.15051903114186849</v>
+      </c>
+      <c r="I43">
+        <v>0.29498269896193768</v>
+      </c>
+      <c r="J43" t="s">
+        <v>176</v>
+      </c>
+      <c r="K43" t="s">
+        <v>177</v>
+      </c>
+      <c r="L43" t="s">
+        <v>178</v>
+      </c>
+      <c r="N43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44">
+        <v>6.9</v>
+      </c>
+      <c r="D44">
+        <v>0.18417874396135267</v>
+      </c>
+      <c r="E44">
+        <v>6.219806763285024E-2</v>
+      </c>
+      <c r="F44">
+        <v>0.22705314009661834</v>
+      </c>
+      <c r="G44">
+        <v>0.16062801932367149</v>
+      </c>
+      <c r="H44">
+        <v>0.15398550724637677</v>
+      </c>
+      <c r="I44">
+        <v>0.31461352657004826</v>
+      </c>
+      <c r="J44" t="s">
+        <v>176</v>
+      </c>
+      <c r="K44" t="s">
+        <v>177</v>
+      </c>
+      <c r="M44" t="s">
+        <v>179</v>
+      </c>
+      <c r="N44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="10">
+        <v>11.037037037037038</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0.21057046979865768</v>
+      </c>
+      <c r="E45" s="10">
+        <v>5.7046979865771806E-2</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0.42197986577181207</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0.25251677852348986</v>
+      </c>
+      <c r="H45" s="10">
+        <v>0.2424496644295302</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0.49496644295302006</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47">
+        <v>11.868055555555555</v>
+      </c>
+      <c r="D47">
+        <v>0.25453481568168523</v>
+      </c>
+      <c r="E47">
+        <v>0.12053832650672909</v>
+      </c>
+      <c r="F47">
+        <v>0.55393017359079399</v>
+      </c>
+      <c r="G47">
+        <v>0.390286717378584</v>
+      </c>
+      <c r="H47">
+        <v>0.38092451726155646</v>
+      </c>
+      <c r="I47">
+        <v>0.77121123464014052</v>
+      </c>
+      <c r="J47" t="s">
+        <v>176</v>
+      </c>
+      <c r="K47" t="s">
+        <v>177</v>
+      </c>
+      <c r="L47" t="s">
+        <v>181</v>
+      </c>
+      <c r="M47" t="s">
+        <v>187</v>
+      </c>
+      <c r="N47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>224</v>
+      </c>
+      <c r="B48" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="10">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0.19687162891046389</v>
+      </c>
+      <c r="E49" s="10">
+        <v>5.2319309600863E-2</v>
+      </c>
+      <c r="F49" s="10">
+        <v>0.39482200647249188</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0.25188781014023731</v>
+      </c>
+      <c r="H49" s="10">
+        <v>0.24919093851132684</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0.50107874865156421</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="N49" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="10">
+        <v>17.453703703703706</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0.19310344827586207</v>
+      </c>
+      <c r="E50" s="10">
+        <v>5.4111405835543767E-2</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0.4201591511936339</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0.28116710875331563</v>
+      </c>
+      <c r="H50" s="10">
+        <v>0.2588859416445623</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0.54005305039787799</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51">
+        <v>4.9333333333333336</v>
+      </c>
+      <c r="D51">
+        <v>0.18918918918918917</v>
+      </c>
+      <c r="E51">
+        <v>8.4459459459459457E-2</v>
+      </c>
+      <c r="F51">
+        <v>0.47297297297297292</v>
+      </c>
+      <c r="G51">
+        <v>0.25675675675675674</v>
+      </c>
+      <c r="H51">
+        <v>0.25337837837837834</v>
+      </c>
+      <c r="I51">
+        <v>0.51013513513513509</v>
+      </c>
+      <c r="J51" t="s">
+        <v>176</v>
+      </c>
+      <c r="K51" t="s">
+        <v>177</v>
+      </c>
+      <c r="L51" t="s">
+        <v>181</v>
+      </c>
+      <c r="M51" t="s">
+        <v>179</v>
+      </c>
+      <c r="N51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52">
+        <v>4.145833333333333</v>
+      </c>
+      <c r="D52">
+        <v>0.20348435595286468</v>
+      </c>
+      <c r="E52">
+        <v>5.529256399837465E-2</v>
+      </c>
+      <c r="F52">
+        <v>0.41164160910199105</v>
+      </c>
+      <c r="G52">
+        <v>0.23035351483136937</v>
+      </c>
+      <c r="H52">
+        <v>0.23405119869971555</v>
+      </c>
+      <c r="I52">
+        <v>0.46440471353108492</v>
+      </c>
+      <c r="J52" t="s">
+        <v>176</v>
+      </c>
+      <c r="K52" t="s">
+        <v>177</v>
+      </c>
+      <c r="M52" t="s">
+        <v>179</v>
+      </c>
+      <c r="N52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54">
+        <v>3.9</v>
+      </c>
+      <c r="D54">
+        <v>0.20940170940170941</v>
+      </c>
+      <c r="E54">
+        <v>5.9829059829059832E-2</v>
+      </c>
+      <c r="F54">
+        <v>0.3247863247863248</v>
+      </c>
+      <c r="G54">
+        <v>0.25641025641025644</v>
+      </c>
+      <c r="H54">
+        <v>0.2606837606837607</v>
+      </c>
+      <c r="I54">
+        <v>0.51709401709401714</v>
+      </c>
+      <c r="J54" t="s">
+        <v>183</v>
+      </c>
+      <c r="K54" t="s">
+        <v>177</v>
+      </c>
+      <c r="M54" t="s">
+        <v>179</v>
+      </c>
+      <c r="N54" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="10">
+        <v>5.2611111111111111</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0.32734952481520591</v>
+      </c>
+      <c r="E56" s="10">
+        <v>0.14466737064413937</v>
+      </c>
+      <c r="F56" s="10">
+        <v>0.33051742344244983</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0.24234424498416049</v>
+      </c>
+      <c r="H56" s="10">
+        <v>0.2249208025343189</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0.46726504751847941</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M56" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N56" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B57" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="16">
-        <v>12.388888888888888</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0.22376681614349778</v>
-      </c>
-      <c r="E10" s="16">
-        <v>4.5739910313901358E-2</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0.51524663677130045</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0.24215246636771304</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0.2488789237668162</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0.49103139013452923</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="K10" s="16" t="s">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58">
+        <v>16.527777777777779</v>
+      </c>
+      <c r="D58">
+        <v>0.16134453781512603</v>
+      </c>
+      <c r="E58">
+        <v>6.0504201680672269E-2</v>
+      </c>
+      <c r="F58">
+        <v>0.58151260504201674</v>
+      </c>
+      <c r="G58">
+        <v>0.3529411764705882</v>
+      </c>
+      <c r="H58">
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="I58">
+        <v>0.69579831932773106</v>
+      </c>
+      <c r="J58" t="s">
+        <v>185</v>
+      </c>
+      <c r="K58" t="s">
         <v>177</v>
       </c>
-      <c r="L10" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="M10" s="16" t="s">
+      <c r="L58" t="s">
+        <v>181</v>
+      </c>
+      <c r="M58" t="s">
+        <v>187</v>
+      </c>
+      <c r="N58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59">
+        <v>12.75</v>
+      </c>
+      <c r="D59">
+        <v>0.17864923747276687</v>
+      </c>
+      <c r="E59">
+        <v>5.5918663761801032E-2</v>
+      </c>
+      <c r="F59">
+        <v>0.4604212055192447</v>
+      </c>
+      <c r="G59">
+        <v>0.26797385620915032</v>
+      </c>
+      <c r="H59">
+        <v>0.28322440087145972</v>
+      </c>
+      <c r="I59">
+        <v>0.55119825708060999</v>
+      </c>
+      <c r="J59" t="s">
+        <v>185</v>
+      </c>
+      <c r="K59" t="s">
+        <v>177</v>
+      </c>
+      <c r="L59" t="s">
+        <v>181</v>
+      </c>
+      <c r="M59" t="s">
         <v>179</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N59" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="16">
-        <v>12.495370370370368</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0.21378288254909228</v>
-      </c>
-      <c r="E11" s="16">
-        <v>4.9277510188958887E-2</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0.32412004446091147</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0.24342349018154874</v>
-      </c>
-      <c r="H11" s="16">
-        <v>0.25268618006669147</v>
-      </c>
-      <c r="I11" s="16">
-        <v>0.49610967024824021</v>
-      </c>
-      <c r="J11" s="16" t="s">
+    <row r="60" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61">
+        <v>19.777777777777779</v>
+      </c>
+      <c r="D61">
+        <v>0.1952247191011236</v>
+      </c>
+      <c r="E61">
+        <v>4.6348314606741568E-2</v>
+      </c>
+      <c r="F61">
+        <v>0.3679775280898876</v>
+      </c>
+      <c r="G61">
+        <v>0.2247191011235955</v>
+      </c>
+      <c r="H61">
+        <v>0.2289325842696629</v>
+      </c>
+      <c r="I61">
+        <v>0.4536516853932584</v>
+      </c>
+      <c r="J61" t="s">
         <v>176</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K61" t="s">
+        <v>184</v>
+      </c>
+      <c r="L61" t="s">
+        <v>181</v>
+      </c>
+      <c r="M61" t="s">
+        <v>179</v>
+      </c>
+      <c r="N61" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="10">
+        <v>16.277777777777779</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0.20278725824800908</v>
+      </c>
+      <c r="E62" s="10">
+        <v>5.3469852104664387E-2</v>
+      </c>
+      <c r="F62" s="10">
+        <v>0.43401592718998866</v>
+      </c>
+      <c r="G62" s="10">
+        <v>0.24345847554038683</v>
+      </c>
+      <c r="H62" s="10">
+        <v>0.26393629124004547</v>
+      </c>
+      <c r="I62" s="10">
+        <v>0.50739476678043227</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K62" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="10">
-        <v>13.567708333333332</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.2034548944337812</v>
-      </c>
-      <c r="E12" s="10">
-        <v>4.6065259117082535E-2</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0.32629558541266795</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0.23416506717850288</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0.24376199616122843</v>
-      </c>
-      <c r="I12" s="10">
-        <v>0.47792706333973134</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="16">
-        <v>10.611111111111111</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0.22513089005235604</v>
-      </c>
-      <c r="E14" s="16">
-        <v>5.2356020942408384E-2</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0.38219895287958117</v>
-      </c>
-      <c r="G14" s="16">
-        <v>0.24083769633507857</v>
-      </c>
-      <c r="H14" s="16">
-        <v>0.25392670157068065</v>
-      </c>
-      <c r="I14" s="16">
-        <v>0.49476439790575921</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="16">
-        <v>10.46111111111111</v>
-      </c>
-      <c r="D15" s="16">
-        <v>0.22225172596919812</v>
-      </c>
-      <c r="E15" s="16">
-        <v>3.2129580456718002E-2</v>
-      </c>
-      <c r="F15" s="16">
-        <v>0.323951141795008</v>
-      </c>
-      <c r="G15" s="16">
-        <v>0.25013276686139141</v>
-      </c>
-      <c r="H15" s="16">
-        <v>0.23207647371216145</v>
-      </c>
-      <c r="I15" s="16">
-        <v>0.48220924057355286</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="10">
-        <v>9.9944444444444454</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0.22901612006670374</v>
-      </c>
-      <c r="E16" s="10">
-        <v>3.4463590883824349E-2</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0.3379655364091162</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0.22429127292940521</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0.21289605336297943</v>
-      </c>
-      <c r="I16" s="10">
-        <v>0.43718732629238466</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="16">
-        <v>8.2611111111111111</v>
-      </c>
-      <c r="D17" s="16">
-        <v>0.1980497646267653</v>
-      </c>
-      <c r="E17" s="16">
-        <v>3.3960995292535316E-2</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0.38197713517148613</v>
-      </c>
-      <c r="G17" s="16">
-        <v>0.23739071956960323</v>
-      </c>
-      <c r="H17" s="16">
-        <v>0.21956960322797578</v>
-      </c>
-      <c r="I17" s="16">
-        <v>0.45696032279757903</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="16">
-        <v>10.755555555555555</v>
-      </c>
-      <c r="D18" s="16">
-        <v>0.19731404958677687</v>
-      </c>
-      <c r="E18" s="16">
-        <v>3.2024793388429749E-2</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0.35072314049586778</v>
-      </c>
-      <c r="G18" s="16">
-        <v>0.23140495867768598</v>
-      </c>
-      <c r="H18" s="16">
-        <v>0.26084710743801653</v>
-      </c>
-      <c r="I18" s="16">
-        <v>0.49225206611570249</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="16">
-        <v>17.166666666666668</v>
-      </c>
-      <c r="D19" s="16">
-        <v>0.17637540453074435</v>
-      </c>
-      <c r="E19" s="16">
-        <v>5.0161812297734629E-2</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0.45307443365695788</v>
-      </c>
-      <c r="G19" s="16">
-        <v>0.28317152103559873</v>
-      </c>
-      <c r="H19" s="16">
-        <v>0.27346278317152101</v>
-      </c>
-      <c r="I19" s="16">
-        <v>0.55663430420711979</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="16">
-        <v>12.922222222222222</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0.17669819432502148</v>
-      </c>
-      <c r="E20" s="16">
-        <v>3.9982803095442825E-2</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0.52966466036113502</v>
-      </c>
-      <c r="G20" s="16">
-        <v>0.27987962166809977</v>
-      </c>
-      <c r="H20" s="16">
-        <v>0.28374892519346517</v>
-      </c>
-      <c r="I20" s="16">
-        <v>0.56362854686156494</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="10">
-        <v>15.854166666666666</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0.18615856329391156</v>
-      </c>
-      <c r="E21" s="10">
-        <v>6.1760840998685937E-2</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0.59964958388085854</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0.30530004380201492</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0.28734121769601401</v>
-      </c>
-      <c r="I21" s="10">
-        <v>0.59264126149802898</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="16">
-        <v>16.055555555555557</v>
-      </c>
-      <c r="D22" s="16">
-        <v>0.18166089965397922</v>
-      </c>
-      <c r="E22" s="16">
-        <v>5.1903114186851208E-2</v>
-      </c>
-      <c r="F22" s="16">
-        <v>0.69550173010380612</v>
-      </c>
-      <c r="G22" s="16">
-        <v>0.29930795847750863</v>
-      </c>
-      <c r="H22" s="16">
-        <v>0.30103806228373697</v>
-      </c>
-      <c r="I22" s="16">
-        <v>0.60034602076124566</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="N22" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="10">
-        <v>16.462962962962962</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0.18391451068616427</v>
-      </c>
-      <c r="E23" s="10">
-        <v>5.568053993250844E-2</v>
-      </c>
-      <c r="F23" s="10">
-        <v>0.59167604049493805</v>
-      </c>
-      <c r="G23" s="10">
-        <v>0.32170978627671543</v>
-      </c>
-      <c r="H23" s="10">
-        <v>0.31271091113610799</v>
-      </c>
-      <c r="I23" s="10">
-        <v>0.63442069741282348</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="N23" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="16">
-        <v>6.833333333333333</v>
-      </c>
-      <c r="D26" s="16">
-        <v>0.22317073170731713</v>
-      </c>
-      <c r="E26" s="16">
-        <v>3.1300813008130084E-2</v>
-      </c>
-      <c r="F26" s="16">
-        <v>0.35609756097560979</v>
-      </c>
-      <c r="G26" s="16">
-        <v>0.22764227642276422</v>
-      </c>
-      <c r="H26" s="16">
-        <v>0.22682926829268293</v>
-      </c>
-      <c r="I26" s="16">
-        <v>0.45447154471544715</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="10">
-        <v>5.8277777777777784</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0.21353670162059102</v>
-      </c>
-      <c r="E27" s="10">
-        <v>3.8608198284080075E-2</v>
-      </c>
-      <c r="F27" s="10">
-        <v>0.46901811248808384</v>
-      </c>
-      <c r="G27" s="10">
-        <v>0.23794089609151567</v>
-      </c>
-      <c r="H27" s="10">
-        <v>0.23736892278360336</v>
-      </c>
-      <c r="I27" s="10">
-        <v>0.47530981887511903</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="10">
-        <v>6.4333333333333327</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0.21502590673575131</v>
-      </c>
-      <c r="E28" s="10">
-        <v>6.7357512953367879E-2</v>
-      </c>
-      <c r="F28" s="10">
-        <v>0.30051813471502592</v>
-      </c>
-      <c r="G28" s="10">
-        <v>0.20725388601036274</v>
-      </c>
-      <c r="H28" s="10">
-        <v>0.22020725388601037</v>
-      </c>
-      <c r="I28" s="10">
-        <v>0.42746113989637313</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="16">
-        <v>3.9</v>
-      </c>
-      <c r="D29" s="16">
-        <v>0.21367521367521369</v>
-      </c>
-      <c r="E29" s="16">
-        <v>5.1282051282051287E-2</v>
-      </c>
-      <c r="F29" s="16">
-        <v>0.41880341880341881</v>
-      </c>
-      <c r="G29" s="16">
-        <v>0.20512820512820515</v>
-      </c>
-      <c r="H29" s="16">
-        <v>0.20512820512820515</v>
-      </c>
-      <c r="I29" s="16">
-        <v>0.4102564102564103</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="K29" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="M29" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="N29" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="16">
-        <v>8.7777777777777768</v>
-      </c>
-      <c r="D34" s="16">
-        <v>0.23101265822784811</v>
-      </c>
-      <c r="E34" s="16">
-        <v>6.3291139240506333E-2</v>
-      </c>
-      <c r="F34" s="16">
-        <v>0.28164556962025322</v>
-      </c>
-      <c r="G34" s="16">
-        <v>0.25949367088607594</v>
-      </c>
-      <c r="H34" s="16">
-        <v>0.24050632911392408</v>
-      </c>
-      <c r="I34" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K34" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="L34" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="M34" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="N34" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="16">
-        <v>7.3250000000000002</v>
-      </c>
-      <c r="D35" s="16">
-        <v>0.20477815699658702</v>
-      </c>
-      <c r="E35" s="16">
-        <v>6.3708759954493738E-2</v>
-      </c>
-      <c r="F35" s="16">
-        <v>0.34812286689419791</v>
-      </c>
-      <c r="G35" s="16">
-        <v>0.21387940841865755</v>
-      </c>
-      <c r="H35" s="16">
-        <v>0.21956769055745168</v>
-      </c>
-      <c r="I35" s="16">
-        <v>0.43344709897610922</v>
-      </c>
-      <c r="J35" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="16">
-        <v>7.55</v>
-      </c>
-      <c r="D36" s="16">
-        <v>0.20676968359087569</v>
-      </c>
-      <c r="E36" s="16">
-        <v>6.0338484179543787E-2</v>
-      </c>
-      <c r="F36" s="16">
-        <v>0.34878587196467992</v>
-      </c>
-      <c r="G36" s="16">
-        <v>0.25827814569536423</v>
-      </c>
-      <c r="H36" s="16">
-        <v>0.20824135393671819</v>
-      </c>
-      <c r="I36" s="16">
-        <v>0.46651949963208239</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="L36" s="16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="16">
-        <v>7.25</v>
-      </c>
-      <c r="D37" s="16">
-        <v>0.19770114942528735</v>
-      </c>
-      <c r="E37" s="16">
-        <v>5.6321839080459776E-2</v>
-      </c>
-      <c r="F37" s="16">
-        <v>0.25747126436781609</v>
-      </c>
-      <c r="G37" s="16">
-        <v>0.22643678160919542</v>
-      </c>
-      <c r="H37" s="16">
-        <v>0.22758620689655171</v>
-      </c>
-      <c r="I37" s="16">
-        <v>0.45402298850574713</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="M37" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="N37" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="10">
-        <v>7.6777777777777771</v>
-      </c>
-      <c r="D38" s="10">
-        <v>0.19971056439942117</v>
-      </c>
-      <c r="E38" s="10">
-        <v>5.6439942112879886E-2</v>
-      </c>
-      <c r="F38" s="10">
-        <v>0.3400868306801737</v>
-      </c>
-      <c r="G38" s="10">
-        <v>0.25325615050651229</v>
-      </c>
-      <c r="H38" s="10">
-        <v>0.23661360347322724</v>
-      </c>
-      <c r="I38" s="10">
-        <v>0.48986975397973953</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="N38" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="10">
-        <v>6.4222222222222225</v>
-      </c>
-      <c r="D43" s="10">
-        <v>0.17387543252595156</v>
-      </c>
-      <c r="E43" s="10">
-        <v>4.8442906574394456E-2</v>
-      </c>
-      <c r="F43" s="10">
-        <v>0.25692041522491349</v>
-      </c>
-      <c r="G43" s="10">
-        <v>0.1444636678200692</v>
-      </c>
-      <c r="H43" s="10">
-        <v>0.15051903114186849</v>
-      </c>
-      <c r="I43" s="10">
-        <v>0.29498269896193768</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L43" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="N43" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="10">
-        <v>6.9</v>
-      </c>
-      <c r="D44" s="10">
-        <v>0.18417874396135267</v>
-      </c>
-      <c r="E44" s="10">
-        <v>6.219806763285024E-2</v>
-      </c>
-      <c r="F44" s="10">
-        <v>0.22705314009661834</v>
-      </c>
-      <c r="G44" s="10">
-        <v>0.16062801932367149</v>
-      </c>
-      <c r="H44" s="10">
-        <v>0.15398550724637677</v>
-      </c>
-      <c r="I44" s="10">
-        <v>0.31461352657004826</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="M44" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="N44" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="16">
-        <v>11.037037037037038</v>
-      </c>
-      <c r="D45" s="16">
-        <v>0.21057046979865768</v>
-      </c>
-      <c r="E45" s="16">
-        <v>5.7046979865771806E-2</v>
-      </c>
-      <c r="F45" s="16">
-        <v>0.42197986577181207</v>
-      </c>
-      <c r="G45" s="16">
-        <v>0.25251677852348986</v>
-      </c>
-      <c r="H45" s="16">
-        <v>0.2424496644295302</v>
-      </c>
-      <c r="I45" s="16">
-        <v>0.49496644295302006</v>
-      </c>
-      <c r="J45" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K45" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="L45" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="M45" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="N45" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="10">
-        <v>11.868055555555555</v>
-      </c>
-      <c r="D47" s="10">
-        <v>0.25453481568168523</v>
-      </c>
-      <c r="E47" s="10">
-        <v>0.12053832650672909</v>
-      </c>
-      <c r="F47" s="10">
-        <v>0.55393017359079399</v>
-      </c>
-      <c r="G47" s="10">
-        <v>0.390286717378584</v>
-      </c>
-      <c r="H47" s="10">
-        <v>0.38092451726155646</v>
-      </c>
-      <c r="I47" s="10">
-        <v>0.77121123464014052</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L47" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="M47" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="N47" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="16">
-        <v>17.166666666666668</v>
-      </c>
-      <c r="D49" s="16">
-        <v>0.19687162891046389</v>
-      </c>
-      <c r="E49" s="16">
-        <v>5.2319309600863E-2</v>
-      </c>
-      <c r="F49" s="16">
-        <v>0.39482200647249188</v>
-      </c>
-      <c r="G49" s="16">
-        <v>0.25188781014023731</v>
-      </c>
-      <c r="H49" s="16">
-        <v>0.24919093851132684</v>
-      </c>
-      <c r="I49" s="16">
-        <v>0.50107874865156421</v>
-      </c>
-      <c r="J49" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="K49" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="L49" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="N49" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="16">
-        <v>17.453703703703706</v>
-      </c>
-      <c r="D50" s="16">
-        <v>0.19310344827586207</v>
-      </c>
-      <c r="E50" s="16">
-        <v>5.4111405835543767E-2</v>
-      </c>
-      <c r="F50" s="16">
-        <v>0.4201591511936339</v>
-      </c>
-      <c r="G50" s="16">
-        <v>0.28116710875331563</v>
-      </c>
-      <c r="H50" s="16">
-        <v>0.2588859416445623</v>
-      </c>
-      <c r="I50" s="16">
-        <v>0.54005305039787799</v>
-      </c>
-      <c r="J50" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="K50" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="L50" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="N50" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="10">
-        <v>4.9333333333333336</v>
-      </c>
-      <c r="D51" s="10">
-        <v>0.18918918918918917</v>
-      </c>
-      <c r="E51" s="10">
-        <v>8.4459459459459457E-2</v>
-      </c>
-      <c r="F51" s="10">
-        <v>0.47297297297297292</v>
-      </c>
-      <c r="G51" s="10">
-        <v>0.25675675675675674</v>
-      </c>
-      <c r="H51" s="10">
-        <v>0.25337837837837834</v>
-      </c>
-      <c r="I51" s="10">
-        <v>0.51013513513513509</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="M51" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="10">
-        <v>4.145833333333333</v>
-      </c>
-      <c r="D52" s="10">
-        <v>0.20348435595286468</v>
-      </c>
-      <c r="E52" s="10">
-        <v>5.529256399837465E-2</v>
-      </c>
-      <c r="F52" s="10">
-        <v>0.41164160910199105</v>
-      </c>
-      <c r="G52" s="10">
-        <v>0.23035351483136937</v>
-      </c>
-      <c r="H52" s="10">
-        <v>0.23405119869971555</v>
-      </c>
-      <c r="I52" s="10">
-        <v>0.46440471353108492</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="M52" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="N52" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="10">
-        <v>3.9</v>
-      </c>
-      <c r="D54" s="10">
-        <v>0.20940170940170941</v>
-      </c>
-      <c r="E54" s="10">
-        <v>5.9829059829059832E-2</v>
-      </c>
-      <c r="F54" s="10">
-        <v>0.3247863247863248</v>
-      </c>
-      <c r="G54" s="10">
-        <v>0.25641025641025644</v>
-      </c>
-      <c r="H54" s="10">
-        <v>0.2606837606837607</v>
-      </c>
-      <c r="I54" s="10">
-        <v>0.51709401709401714</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="M54" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="N54" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C56" s="16">
-        <v>5.2611111111111111</v>
-      </c>
-      <c r="D56" s="16">
-        <v>0.32734952481520591</v>
-      </c>
-      <c r="E56" s="16">
-        <v>0.14466737064413937</v>
-      </c>
-      <c r="F56" s="16">
-        <v>0.33051742344244983</v>
-      </c>
-      <c r="G56" s="16">
-        <v>0.24234424498416049</v>
-      </c>
-      <c r="H56" s="16">
-        <v>0.2249208025343189</v>
-      </c>
-      <c r="I56" s="16">
-        <v>0.46726504751847941</v>
-      </c>
-      <c r="J56" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K56" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="L56" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="M56" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="N56" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" s="10">
-        <v>12.75</v>
-      </c>
-      <c r="D58" s="10">
-        <v>0.17864923747276687</v>
-      </c>
-      <c r="E58" s="10">
-        <v>5.5918663761801032E-2</v>
-      </c>
-      <c r="F58" s="10">
-        <v>0.4604212055192447</v>
-      </c>
-      <c r="G58" s="10">
-        <v>0.26797385620915032</v>
-      </c>
-      <c r="H58" s="10">
-        <v>0.28322440087145972</v>
-      </c>
-      <c r="I58" s="10">
-        <v>0.55119825708060999</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="K58" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L58" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="M58" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="N58" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" s="10">
-        <v>16.527777777777779</v>
-      </c>
-      <c r="D59" s="10">
-        <v>0.16134453781512603</v>
-      </c>
-      <c r="E59" s="10">
-        <v>6.0504201680672269E-2</v>
-      </c>
-      <c r="F59" s="10">
-        <v>0.58151260504201674</v>
-      </c>
-      <c r="G59" s="10">
-        <v>0.3529411764705882</v>
-      </c>
-      <c r="H59" s="10">
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="I59" s="10">
-        <v>0.69579831932773106</v>
-      </c>
-      <c r="J59" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="K59" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L59" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="M59" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="N59" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="10">
-        <v>19.777777777777779</v>
-      </c>
-      <c r="D62" s="10">
-        <v>0.1952247191011236</v>
-      </c>
-      <c r="E62" s="10">
-        <v>4.6348314606741568E-2</v>
-      </c>
-      <c r="F62" s="10">
-        <v>0.3679775280898876</v>
-      </c>
-      <c r="G62" s="10">
-        <v>0.2247191011235955</v>
-      </c>
-      <c r="H62" s="10">
-        <v>0.2289325842696629</v>
-      </c>
-      <c r="I62" s="10">
-        <v>0.4536516853932584</v>
-      </c>
-      <c r="J62" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K62" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>181</v>
@@ -25861,908 +28270,864 @@
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C63" s="16">
-        <v>16.277777777777779</v>
-      </c>
-      <c r="D63" s="16">
-        <v>0.20278725824800908</v>
-      </c>
-      <c r="E63" s="16">
-        <v>5.3469852104664387E-2</v>
-      </c>
-      <c r="F63" s="16">
-        <v>0.43401592718998866</v>
-      </c>
-      <c r="G63" s="16">
-        <v>0.24345847554038683</v>
-      </c>
-      <c r="H63" s="16">
-        <v>0.26393629124004547</v>
-      </c>
-      <c r="I63" s="16">
-        <v>0.50739476678043227</v>
-      </c>
-      <c r="J63" s="16" t="s">
+    <row r="63" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="10">
+        <v>14.368055555555557</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0.18994683421942971</v>
+      </c>
+      <c r="E64" s="10">
+        <v>4.9782503624939578E-2</v>
+      </c>
+      <c r="F64" s="10">
+        <v>0.35041082648622518</v>
+      </c>
+      <c r="G64" s="10">
+        <v>0.24214596423392945</v>
+      </c>
+      <c r="H64" s="10">
+        <v>0.24697921701304976</v>
+      </c>
+      <c r="I64" s="10">
+        <v>0.48912518124697923</v>
+      </c>
+      <c r="J64" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="K63" s="16" t="s">
+      <c r="K64" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="L63" s="16" t="s">
+      <c r="L64" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="M64" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N64" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="10">
+        <v>14.430555555555555</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0.19217196021815849</v>
+      </c>
+      <c r="E65" s="10">
+        <v>5.3256336220725065E-2</v>
+      </c>
+      <c r="F65" s="10">
+        <v>0.41033044594161056</v>
+      </c>
+      <c r="G65" s="10">
+        <v>0.25601539942252166</v>
+      </c>
+      <c r="H65" s="10">
+        <v>0.27109400064164263</v>
+      </c>
+      <c r="I65" s="10">
+        <v>0.52710940006416429</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="M65" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N65" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="10">
+        <v>7.2666666666666675</v>
+      </c>
+      <c r="D66" s="10">
+        <v>0.18119266055045868</v>
+      </c>
+      <c r="E66" s="10">
+        <v>5.5045871559633024E-2</v>
+      </c>
+      <c r="F66" s="10">
+        <v>0.35321100917431192</v>
+      </c>
+      <c r="G66" s="10">
+        <v>0.2293577981651376</v>
+      </c>
+      <c r="H66" s="10">
+        <v>0.23853211009174308</v>
+      </c>
+      <c r="I66" s="10">
+        <v>0.4678899082568807</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L66" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="M63" s="16" t="s">
+      <c r="M66" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="N63" s="16" t="s">
+      <c r="N66" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C65" s="16">
-        <v>14.368055555555557</v>
-      </c>
-      <c r="D65" s="16">
-        <v>0.18994683421942971</v>
-      </c>
-      <c r="E65" s="16">
-        <v>4.9782503624939578E-2</v>
-      </c>
-      <c r="F65" s="16">
-        <v>0.35041082648622518</v>
-      </c>
-      <c r="G65" s="16">
-        <v>0.24214596423392945</v>
-      </c>
-      <c r="H65" s="16">
-        <v>0.24697921701304976</v>
-      </c>
-      <c r="I65" s="16">
-        <v>0.48912518124697923</v>
-      </c>
-      <c r="J65" s="16" t="s">
+    <row r="67" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="10">
+        <v>10.555555555555555</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0.18947368421052632</v>
+      </c>
+      <c r="E67" s="10">
+        <v>6.3157894736842107E-2</v>
+      </c>
+      <c r="F67" s="10">
+        <v>0.4210526315789474</v>
+      </c>
+      <c r="G67" s="10">
+        <v>0.23684210526315791</v>
+      </c>
+      <c r="H67" s="10">
+        <v>0.25263157894736843</v>
+      </c>
+      <c r="I67" s="10">
+        <v>0.48947368421052634</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M67" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N67" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="10">
+        <v>8.216666666666665</v>
+      </c>
+      <c r="D68" s="10">
+        <v>0.18255578093306291</v>
+      </c>
+      <c r="E68" s="10">
+        <v>5.9837728194726165E-2</v>
+      </c>
+      <c r="F68" s="10">
+        <v>0.44624746450304265</v>
+      </c>
+      <c r="G68" s="10">
+        <v>0.24340770791075056</v>
+      </c>
+      <c r="H68" s="10">
+        <v>0.24746450304259637</v>
+      </c>
+      <c r="I68" s="10">
+        <v>0.49087221095334693</v>
+      </c>
+      <c r="J68" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="K65" s="16" t="s">
+      <c r="K68" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="L65" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="M65" s="16" t="s">
+    </row>
+    <row r="69" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>206</v>
+      </c>
+      <c r="B72" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="10">
+        <v>7.5933333333333337</v>
+      </c>
+      <c r="D74" s="10">
+        <v>0.17690956979806846</v>
+      </c>
+      <c r="E74" s="10">
+        <v>6.7603160667251985E-2</v>
+      </c>
+      <c r="F74" s="10">
+        <v>0.46268656716417905</v>
+      </c>
+      <c r="G74" s="10">
+        <v>0.25636523266022826</v>
+      </c>
+      <c r="H74" s="10">
+        <v>0.27919227392449519</v>
+      </c>
+      <c r="I74" s="10">
+        <v>0.53555750658472345</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L74" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M74" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="N65" s="16" t="s">
+      <c r="N74" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C66" s="16">
-        <v>14.430555555555555</v>
-      </c>
-      <c r="D66" s="16">
-        <v>0.19217196021815849</v>
-      </c>
-      <c r="E66" s="16">
-        <v>5.3256336220725065E-2</v>
-      </c>
-      <c r="F66" s="16">
-        <v>0.41033044594161056</v>
-      </c>
-      <c r="G66" s="16">
-        <v>0.25601539942252166</v>
-      </c>
-      <c r="H66" s="16">
-        <v>0.27109400064164263</v>
-      </c>
-      <c r="I66" s="16">
-        <v>0.52710940006416429</v>
-      </c>
-      <c r="J66" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="K66" s="16" t="s">
+    <row r="75" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="10">
+        <v>9.658333333333335</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0.16824849007765311</v>
+      </c>
+      <c r="E75" s="10">
+        <v>5.7808455565142358E-2</v>
+      </c>
+      <c r="F75" s="10">
+        <v>0.53494391716997391</v>
+      </c>
+      <c r="G75" s="10">
+        <v>0.22433132010353748</v>
+      </c>
+      <c r="H75" s="10">
+        <v>0.23468507333908536</v>
+      </c>
+      <c r="I75" s="10">
+        <v>0.45901639344262285</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K75" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="L66" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="M66" s="16" t="s">
+      <c r="L75" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M75" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="N66" s="16" t="s">
+      <c r="N75" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="16">
-        <v>7.2666666666666675</v>
-      </c>
-      <c r="D67" s="16">
-        <v>0.18119266055045868</v>
-      </c>
-      <c r="E67" s="16">
-        <v>5.5045871559633024E-2</v>
-      </c>
-      <c r="F67" s="16">
-        <v>0.35321100917431192</v>
-      </c>
-      <c r="G67" s="16">
-        <v>0.2293577981651376</v>
-      </c>
-      <c r="H67" s="16">
-        <v>0.23853211009174308</v>
-      </c>
-      <c r="I67" s="16">
-        <v>0.4678899082568807</v>
-      </c>
-      <c r="J67" s="16" t="s">
+    <row r="76" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" s="10">
+        <v>9.7708333333333339</v>
+      </c>
+      <c r="D76" s="10">
+        <v>0.17128642501776831</v>
+      </c>
+      <c r="E76" s="10">
+        <v>7.3205401563610509E-2</v>
+      </c>
+      <c r="F76" s="10">
+        <v>0.64960909737029138</v>
+      </c>
+      <c r="G76" s="10">
+        <v>0.29140014214641075</v>
+      </c>
+      <c r="H76" s="10">
+        <v>0.31343283582089548</v>
+      </c>
+      <c r="I76" s="10">
+        <v>0.60483297796730628</v>
+      </c>
+      <c r="J76" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="K67" s="16" t="s">
+      <c r="K76" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="L67" s="16" t="s">
+      <c r="L76" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="M67" s="16" t="s">
+      <c r="M76" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="N67" s="16" t="s">
+      <c r="N76" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C68" s="16">
-        <v>10.555555555555555</v>
-      </c>
-      <c r="D68" s="16">
-        <v>0.18947368421052632</v>
-      </c>
-      <c r="E68" s="16">
-        <v>6.3157894736842107E-2</v>
-      </c>
-      <c r="F68" s="16">
-        <v>0.4210526315789474</v>
-      </c>
-      <c r="G68" s="16">
-        <v>0.23684210526315791</v>
-      </c>
-      <c r="H68" s="16">
-        <v>0.25263157894736843</v>
-      </c>
-      <c r="I68" s="16">
-        <v>0.48947368421052634</v>
-      </c>
-      <c r="J68" s="16" t="s">
+    <row r="77" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" s="10">
+        <v>7.1666666666666661</v>
+      </c>
+      <c r="D77" s="10">
+        <v>0.18449612403100776</v>
+      </c>
+      <c r="E77" s="10">
+        <v>7.2480620155038769E-2</v>
+      </c>
+      <c r="F77" s="10">
+        <v>0.60930232558139541</v>
+      </c>
+      <c r="G77" s="10">
+        <v>0.28372093023255812</v>
+      </c>
+      <c r="H77" s="10">
+        <v>0.29069767441860461</v>
+      </c>
+      <c r="I77" s="10">
+        <v>0.57441860465116279</v>
+      </c>
+      <c r="J77" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="K68" s="16" t="s">
+      <c r="K77" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="L68" s="16" t="s">
+      <c r="L77" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="M68" s="16" t="s">
+      <c r="M77" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="N68" s="16" t="s">
+      <c r="N77" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" s="16">
-        <v>8.216666666666665</v>
-      </c>
-      <c r="D69" s="16">
-        <v>0.18255578093306291</v>
-      </c>
-      <c r="E69" s="16">
-        <v>5.9837728194726165E-2</v>
-      </c>
-      <c r="F69" s="16">
-        <v>0.44624746450304265</v>
-      </c>
-      <c r="G69" s="16">
-        <v>0.24340770791075056</v>
-      </c>
-      <c r="H69" s="16">
-        <v>0.24746450304259637</v>
-      </c>
-      <c r="I69" s="16">
-        <v>0.49087221095334693</v>
-      </c>
-      <c r="J69" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="K69" s="16" t="s">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78">
+        <v>4.3583333333333325</v>
+      </c>
+      <c r="D78">
+        <v>0.22179732313575529</v>
+      </c>
+      <c r="E78">
+        <v>7.4569789674952217E-2</v>
+      </c>
+      <c r="F78">
+        <v>0.5200764818355641</v>
+      </c>
+      <c r="G78">
+        <v>0.26577437858508607</v>
+      </c>
+      <c r="H78">
+        <v>0.26003824091778205</v>
+      </c>
+      <c r="I78">
+        <v>0.52581261950286806</v>
+      </c>
+      <c r="J78" t="s">
+        <v>183</v>
+      </c>
+      <c r="K78" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C75" s="16">
-        <v>7.5933333333333337</v>
-      </c>
-      <c r="D75" s="16">
-        <v>0.17690956979806846</v>
-      </c>
-      <c r="E75" s="16">
-        <v>6.7603160667251985E-2</v>
-      </c>
-      <c r="F75" s="16">
-        <v>0.46268656716417905</v>
-      </c>
-      <c r="G75" s="16">
-        <v>0.25636523266022826</v>
-      </c>
-      <c r="H75" s="16">
-        <v>0.27919227392449519</v>
-      </c>
-      <c r="I75" s="16">
-        <v>0.53555750658472345</v>
-      </c>
-      <c r="J75" s="16" t="s">
+      <c r="M78" t="s">
+        <v>179</v>
+      </c>
+      <c r="N78" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="10">
+        <v>2.9479166666666665</v>
+      </c>
+      <c r="D81" s="10">
+        <v>0.23321554770318023</v>
+      </c>
+      <c r="E81" s="10">
+        <v>7.7738515901060068E-2</v>
+      </c>
+      <c r="F81" s="10">
+        <v>0.47349823321554768</v>
+      </c>
+      <c r="G81" s="10">
+        <v>0.23321554770318023</v>
+      </c>
+      <c r="H81" s="10">
+        <v>0.23321554770318023</v>
+      </c>
+      <c r="I81" s="10">
+        <v>0.46643109540636046</v>
+      </c>
+      <c r="J81" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="K75" s="16" t="s">
+      <c r="K81" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="L75" s="16" t="s">
+      <c r="M81" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N81" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="10">
+        <v>2.3854166666666665</v>
+      </c>
+      <c r="D82" s="10">
+        <v>0.17903930131004367</v>
+      </c>
+      <c r="E82" s="10">
+        <v>8.7336244541484725E-2</v>
+      </c>
+      <c r="F82" s="10">
+        <v>0.46288209606986908</v>
+      </c>
+      <c r="G82" s="10">
+        <v>0.20087336244541487</v>
+      </c>
+      <c r="H82" s="10">
+        <v>0.21834061135371183</v>
+      </c>
+      <c r="I82" s="10">
+        <v>0.41921397379912673</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83">
+        <v>5.9333333333333336</v>
+      </c>
+      <c r="D83">
+        <v>0.20224719101123595</v>
+      </c>
+      <c r="E83">
+        <v>7.5842696629213488E-2</v>
+      </c>
+      <c r="F83">
+        <v>0.5280898876404494</v>
+      </c>
+      <c r="G83">
+        <v>0.22191011235955055</v>
+      </c>
+      <c r="H83">
+        <v>0.23595505617977525</v>
+      </c>
+      <c r="I83">
+        <v>0.4578651685393258</v>
+      </c>
+      <c r="J83" t="s">
+        <v>176</v>
+      </c>
+      <c r="K83" t="s">
+        <v>177</v>
+      </c>
+      <c r="L83" t="s">
         <v>181</v>
       </c>
-      <c r="M75" s="16" t="s">
+      <c r="M83" t="s">
         <v>179</v>
       </c>
-      <c r="N75" s="16" t="s">
+      <c r="N83" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C76" s="16">
-        <v>9.658333333333335</v>
-      </c>
-      <c r="D76" s="16">
-        <v>0.16824849007765311</v>
-      </c>
-      <c r="E76" s="16">
-        <v>5.7808455565142358E-2</v>
-      </c>
-      <c r="F76" s="16">
-        <v>0.53494391716997391</v>
-      </c>
-      <c r="G76" s="16">
-        <v>0.22433132010353748</v>
-      </c>
-      <c r="H76" s="16">
-        <v>0.23468507333908536</v>
-      </c>
-      <c r="I76" s="16">
-        <v>0.45901639344262285</v>
-      </c>
-      <c r="J76" s="16" t="s">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>196</v>
+      </c>
+      <c r="B84" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>198</v>
+      </c>
+      <c r="B85" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" s="10">
+        <v>3.453125</v>
+      </c>
+      <c r="D87" s="10">
+        <v>0.24132730015082954</v>
+      </c>
+      <c r="E87" s="10">
+        <v>9.3514328808446456E-2</v>
+      </c>
+      <c r="F87" s="10">
+        <v>0.45248868778280543</v>
+      </c>
+      <c r="G87" s="10">
+        <v>0.22322775263951736</v>
+      </c>
+      <c r="H87" s="10">
+        <v>0.24132730015082957</v>
+      </c>
+      <c r="I87" s="10">
+        <v>0.46455505279034692</v>
+      </c>
+      <c r="J87" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L87" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M87" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N87" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" t="s">
+        <v>148</v>
+      </c>
+      <c r="C88">
+        <v>3.3315972222222228</v>
+      </c>
+      <c r="D88">
+        <v>0.23189161021365293</v>
+      </c>
+      <c r="E88">
+        <v>8.9108910891089091E-2</v>
+      </c>
+      <c r="F88">
+        <v>0.45023449713392383</v>
+      </c>
+      <c r="G88">
+        <v>0.23241271495570603</v>
+      </c>
+      <c r="H88">
+        <v>0.2454403335070349</v>
+      </c>
+      <c r="I88">
+        <v>0.4778530484627409</v>
+      </c>
+      <c r="J88" t="s">
         <v>176</v>
       </c>
-      <c r="K76" s="16" t="s">
+      <c r="K88" t="s">
         <v>177</v>
       </c>
-      <c r="L76" s="16" t="s">
+      <c r="L88" t="s">
         <v>181</v>
       </c>
-      <c r="M76" s="16" t="s">
+      <c r="M88" t="s">
         <v>179</v>
       </c>
-      <c r="N76" s="16" t="s">
+      <c r="N88" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C77" s="16">
-        <v>9.7708333333333339</v>
-      </c>
-      <c r="D77" s="16">
-        <v>0.17128642501776831</v>
-      </c>
-      <c r="E77" s="16">
-        <v>7.3205401563610509E-2</v>
-      </c>
-      <c r="F77" s="16">
-        <v>0.64960909737029138</v>
-      </c>
-      <c r="G77" s="16">
-        <v>0.29140014214641075</v>
-      </c>
-      <c r="H77" s="16">
-        <v>0.31343283582089548</v>
-      </c>
-      <c r="I77" s="16">
-        <v>0.60483297796730628</v>
-      </c>
-      <c r="J77" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="K77" s="16" t="s">
+    <row r="89" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C90" s="10">
+        <v>2.4688888888888889</v>
+      </c>
+      <c r="D90" s="10">
+        <v>0.2196219621962196</v>
+      </c>
+      <c r="E90" s="10">
+        <v>8.4608460846084615E-2</v>
+      </c>
+      <c r="F90" s="10">
+        <v>0.43384338433843378</v>
+      </c>
+      <c r="G90" s="10">
+        <v>0.22502250225022508</v>
+      </c>
+      <c r="H90" s="10">
+        <v>0.2277227722772277</v>
+      </c>
+      <c r="I90" s="10">
+        <v>0.45274527452745278</v>
+      </c>
+      <c r="J90" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K90" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="L77" s="16" t="s">
+      <c r="M90" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N90" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C91" s="10">
+        <v>2.6633333333333331</v>
+      </c>
+      <c r="D91" s="10">
+        <v>0.21818940342094284</v>
+      </c>
+      <c r="E91" s="10">
+        <v>7.217355027117231E-2</v>
+      </c>
+      <c r="F91" s="10">
+        <v>0.40250312891113899</v>
+      </c>
+      <c r="G91" s="10">
+        <v>0.21693783896537339</v>
+      </c>
+      <c r="H91" s="10">
+        <v>0.23195661243220694</v>
+      </c>
+      <c r="I91" s="10">
+        <v>0.44889445139758033</v>
+      </c>
+      <c r="J91" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K91" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L91" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="M77" s="16" t="s">
+      <c r="M91" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="N77" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" s="16">
-        <v>7.1666666666666661</v>
-      </c>
-      <c r="D78" s="16">
-        <v>0.18449612403100776</v>
-      </c>
-      <c r="E78" s="16">
-        <v>7.2480620155038769E-2</v>
-      </c>
-      <c r="F78" s="16">
-        <v>0.60930232558139541</v>
-      </c>
-      <c r="G78" s="16">
-        <v>0.28372093023255812</v>
-      </c>
-      <c r="H78" s="16">
-        <v>0.29069767441860461</v>
-      </c>
-      <c r="I78" s="16">
-        <v>0.57441860465116279</v>
-      </c>
-      <c r="J78" s="16" t="s">
+      <c r="N91" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>135</v>
+      </c>
+      <c r="B92" t="s">
+        <v>136</v>
+      </c>
+      <c r="C92">
+        <v>2.5416666666666665</v>
+      </c>
+      <c r="D92">
+        <v>0.16803278688524589</v>
+      </c>
+      <c r="E92">
+        <v>5.3278688524590161E-2</v>
+      </c>
+      <c r="F92">
+        <v>0.43442622950819676</v>
+      </c>
+      <c r="G92">
+        <v>0.18852459016393444</v>
+      </c>
+      <c r="H92">
+        <v>0.21311475409836064</v>
+      </c>
+      <c r="I92">
+        <v>0.40163934426229508</v>
+      </c>
+      <c r="J92" t="s">
         <v>176</v>
       </c>
-      <c r="K78" s="16" t="s">
+      <c r="K92" t="s">
         <v>177</v>
       </c>
-      <c r="L78" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="M78" s="16" t="s">
+      <c r="L92" t="s">
+        <v>182</v>
+      </c>
+      <c r="M92" t="s">
         <v>179</v>
       </c>
-      <c r="N78" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C79" s="10">
-        <v>4.3583333333333325</v>
-      </c>
-      <c r="D79" s="10">
-        <v>0.22179732313575529</v>
-      </c>
-      <c r="E79" s="10">
-        <v>7.4569789674952217E-2</v>
-      </c>
-      <c r="F79" s="10">
-        <v>0.5200764818355641</v>
-      </c>
-      <c r="G79" s="10">
-        <v>0.26577437858508607</v>
-      </c>
-      <c r="H79" s="10">
-        <v>0.26003824091778205</v>
-      </c>
-      <c r="I79" s="10">
-        <v>0.52581261950286806</v>
-      </c>
-      <c r="J79" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="K79" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="M79" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="N79" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C82" s="16">
-        <v>2.9479166666666665</v>
-      </c>
-      <c r="D82" s="16">
-        <v>0.23321554770318023</v>
-      </c>
-      <c r="E82" s="16">
-        <v>7.7738515901060068E-2</v>
-      </c>
-      <c r="F82" s="16">
-        <v>0.47349823321554768</v>
-      </c>
-      <c r="G82" s="16">
-        <v>0.23321554770318023</v>
-      </c>
-      <c r="H82" s="16">
-        <v>0.23321554770318023</v>
-      </c>
-      <c r="I82" s="16">
-        <v>0.46643109540636046</v>
-      </c>
-      <c r="J82" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K82" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="M82" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="N82" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C83" s="16">
-        <v>2.3854166666666665</v>
-      </c>
-      <c r="D83" s="16">
-        <v>0.17903930131004367</v>
-      </c>
-      <c r="E83" s="16">
-        <v>8.7336244541484725E-2</v>
-      </c>
-      <c r="F83" s="16">
-        <v>0.46288209606986908</v>
-      </c>
-      <c r="G83" s="16">
-        <v>0.20087336244541487</v>
-      </c>
-      <c r="H83" s="16">
-        <v>0.21834061135371183</v>
-      </c>
-      <c r="I83" s="16">
-        <v>0.41921397379912673</v>
-      </c>
-      <c r="J83" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K83" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C84" s="10">
-        <v>5.9333333333333336</v>
-      </c>
-      <c r="D84" s="10">
-        <v>0.20224719101123595</v>
-      </c>
-      <c r="E84" s="10">
-        <v>7.5842696629213488E-2</v>
-      </c>
-      <c r="F84" s="10">
-        <v>0.5280898876404494</v>
-      </c>
-      <c r="G84" s="10">
-        <v>0.22191011235955055</v>
-      </c>
-      <c r="H84" s="10">
-        <v>0.23595505617977525</v>
-      </c>
-      <c r="I84" s="10">
-        <v>0.4578651685393258</v>
-      </c>
-      <c r="J84" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K84" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L84" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="M84" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="N84" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C88" s="16">
-        <v>3.453125</v>
-      </c>
-      <c r="D88" s="16">
-        <v>0.24132730015082954</v>
-      </c>
-      <c r="E88" s="16">
-        <v>9.3514328808446456E-2</v>
-      </c>
-      <c r="F88" s="16">
-        <v>0.45248868778280543</v>
-      </c>
-      <c r="G88" s="16">
-        <v>0.22322775263951736</v>
-      </c>
-      <c r="H88" s="16">
-        <v>0.24132730015082957</v>
-      </c>
-      <c r="I88" s="16">
-        <v>0.46455505279034692</v>
-      </c>
-      <c r="J88" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="K88" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="L88" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="M88" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="N88" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C89" s="10">
-        <v>3.3315972222222228</v>
-      </c>
-      <c r="D89" s="10">
-        <v>0.23189161021365293</v>
-      </c>
-      <c r="E89" s="10">
-        <v>8.9108910891089091E-2</v>
-      </c>
-      <c r="F89" s="10">
-        <v>0.45023449713392383</v>
-      </c>
-      <c r="G89" s="10">
-        <v>0.23241271495570603</v>
-      </c>
-      <c r="H89" s="10">
-        <v>0.2454403335070349</v>
-      </c>
-      <c r="I89" s="10">
-        <v>0.4778530484627409</v>
-      </c>
-      <c r="J89" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K89" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L89" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="M89" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="N89" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C91" s="16">
-        <v>2.4688888888888889</v>
-      </c>
-      <c r="D91" s="16">
-        <v>0.2196219621962196</v>
-      </c>
-      <c r="E91" s="16">
-        <v>8.4608460846084615E-2</v>
-      </c>
-      <c r="F91" s="16">
-        <v>0.43384338433843378</v>
-      </c>
-      <c r="G91" s="16">
-        <v>0.22502250225022508</v>
-      </c>
-      <c r="H91" s="16">
-        <v>0.2277227722772277</v>
-      </c>
-      <c r="I91" s="16">
-        <v>0.45274527452745278</v>
-      </c>
-      <c r="J91" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K91" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="M91" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="N91" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C92" s="16">
-        <v>2.6633333333333331</v>
-      </c>
-      <c r="D92" s="16">
-        <v>0.21818940342094284</v>
-      </c>
-      <c r="E92" s="16">
-        <v>7.217355027117231E-2</v>
-      </c>
-      <c r="F92" s="16">
-        <v>0.40250312891113899</v>
-      </c>
-      <c r="G92" s="16">
-        <v>0.21693783896537339</v>
-      </c>
-      <c r="H92" s="16">
-        <v>0.23195661243220694</v>
-      </c>
-      <c r="I92" s="16">
-        <v>0.44889445139758033</v>
-      </c>
-      <c r="J92" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="K92" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="L92" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="M92" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="N92" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C93" s="10">
-        <v>2.5416666666666665</v>
-      </c>
-      <c r="D93" s="10">
-        <v>0.16803278688524589</v>
-      </c>
-      <c r="E93" s="10">
-        <v>5.3278688524590161E-2</v>
-      </c>
-      <c r="F93" s="10">
-        <v>0.43442622950819676</v>
-      </c>
-      <c r="G93" s="10">
-        <v>0.18852459016393444</v>
-      </c>
-      <c r="H93" s="10">
-        <v>0.21311475409836064</v>
-      </c>
-      <c r="I93" s="10">
-        <v>0.40163934426229508</v>
-      </c>
-      <c r="J93" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K93" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L93" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="M93" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="N93" s="10" t="s">
+      <c r="N92" t="s">
         <v>186</v>
       </c>
     </row>
